--- a/drafts/tables/TableSX_moderator_vars.xlsx
+++ b/drafts/tables/TableSX_moderator_vars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/p_meta/drafts/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5D7877-A8B9-CB46-B720-4ABA29A16DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C7DC6F-A083-084F-949C-78F818361E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="760" windowWidth="17320" windowHeight="18880" activeTab="1" xr2:uid="{2CAD8CD5-C2E3-A04F-99D3-E1E5C8B0923E}"/>
+    <workbookView xWindow="1900" yWindow="500" windowWidth="30020" windowHeight="28000" activeTab="1" xr2:uid="{2CAD8CD5-C2E3-A04F-99D3-E1E5C8B0923E}"/>
   </bookViews>
   <sheets>
     <sheet name="climate" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="42">
   <si>
     <t>trait</t>
   </si>
@@ -333,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -422,6 +422,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,6 +451,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -449,24 +499,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -479,47 +511,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,8 +851,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -906,7 +898,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -943,7 +935,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -978,7 +970,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1013,7 +1005,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +1040,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1083,7 +1075,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1118,7 +1110,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1145,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1188,7 +1180,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
@@ -1223,7 +1215,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1260,7 +1252,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
@@ -1295,7 +1287,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1322,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1365,7 +1357,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1392,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1435,7 +1427,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1470,7 +1462,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +1497,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1540,7 +1532,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="50" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -1577,7 +1569,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1612,7 +1604,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,7 +1639,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1682,7 +1674,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1717,7 +1709,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1752,7 +1744,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1787,7 +1779,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1822,7 +1814,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="6" t="s">
         <v>22</v>
       </c>
@@ -1857,7 +1849,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="50" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -1894,7 +1886,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1929,7 +1921,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
@@ -1964,7 +1956,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
@@ -1999,7 +1991,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="11" t="s">
         <v>21</v>
       </c>
@@ -2034,7 +2026,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -2069,7 +2061,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
@@ -2104,7 +2096,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
@@ -2139,7 +2131,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="13" t="s">
         <v>22</v>
       </c>
@@ -2174,7 +2166,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="51" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2211,7 +2203,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="1" t="s">
         <v>20</v>
       </c>
@@ -2246,7 +2238,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
@@ -2281,7 +2273,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="11" t="s">
         <v>21</v>
       </c>
@@ -2316,7 +2308,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
@@ -2351,7 +2343,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
@@ -2386,7 +2378,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="1" t="s">
         <v>22</v>
       </c>
@@ -2421,7 +2413,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="1" t="s">
         <v>22</v>
       </c>
@@ -2456,7 +2448,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="2" t="s">
         <v>22</v>
       </c>
@@ -2491,7 +2483,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="16" t="s">
@@ -2528,7 +2520,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="11" t="s">
         <v>20</v>
       </c>
@@ -2563,7 +2555,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
@@ -2598,7 +2590,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="2" t="s">
         <v>21</v>
       </c>
@@ -2633,7 +2625,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
@@ -2668,7 +2660,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
@@ -2703,7 +2695,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="1" t="s">
         <v>22</v>
       </c>
@@ -2738,7 +2730,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="1" t="s">
         <v>22</v>
       </c>
@@ -2773,7 +2765,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="13" t="s">
         <v>22</v>
       </c>
@@ -2808,7 +2800,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B56" s="24" t="s">
@@ -2845,7 +2837,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="18" t="s">
         <v>20</v>
       </c>
@@ -2880,7 +2872,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="18" t="s">
         <v>20</v>
       </c>
@@ -2915,7 +2907,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="11" t="s">
         <v>21</v>
       </c>
@@ -2950,7 +2942,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="18" t="s">
         <v>21</v>
       </c>
@@ -2985,7 +2977,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="41"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="18" t="s">
         <v>21</v>
       </c>
@@ -3020,7 +3012,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="41"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="11" t="s">
         <v>22</v>
       </c>
@@ -3055,7 +3047,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="18" t="s">
         <v>22</v>
       </c>
@@ -3090,7 +3082,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="42"/>
+      <c r="A64" s="49"/>
       <c r="B64" s="21" t="s">
         <v>22</v>
       </c>
@@ -3125,7 +3117,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="17" t="s">
@@ -3162,7 +3154,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="41"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="18" t="s">
         <v>20</v>
       </c>
@@ -3197,7 +3189,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="18" t="s">
         <v>20</v>
       </c>
@@ -3232,7 +3224,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="18" t="s">
         <v>21</v>
       </c>
@@ -3267,7 +3259,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="41"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="11" t="s">
         <v>21</v>
       </c>
@@ -3302,7 +3294,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="18" t="s">
         <v>21</v>
       </c>
@@ -3337,7 +3329,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="18" t="s">
         <v>22</v>
       </c>
@@ -3372,7 +3364,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="41"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="18" t="s">
         <v>22</v>
       </c>
@@ -3407,7 +3399,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="42"/>
+      <c r="A73" s="49"/>
       <c r="B73" s="21" t="s">
         <v>22</v>
       </c>
@@ -3442,7 +3434,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="47" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -3479,7 +3471,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="18" t="s">
         <v>20</v>
       </c>
@@ -3514,7 +3506,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="18" t="s">
         <v>20</v>
       </c>
@@ -3549,7 +3541,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="18" t="s">
         <v>21</v>
       </c>
@@ -3584,7 +3576,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="41"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="18" t="s">
         <v>21</v>
       </c>
@@ -3619,7 +3611,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="41"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="18" t="s">
         <v>21</v>
       </c>
@@ -3654,7 +3646,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="41"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="18" t="s">
         <v>22</v>
       </c>
@@ -3689,7 +3681,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="41"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="18" t="s">
         <v>22</v>
       </c>
@@ -3724,7 +3716,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="42"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="13" t="s">
         <v>22</v>
       </c>
@@ -3759,7 +3751,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="47" t="s">
         <v>26</v>
       </c>
       <c r="B83" s="17" t="s">
@@ -3796,7 +3788,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="41"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="18" t="s">
         <v>20</v>
       </c>
@@ -3831,7 +3823,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="41"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="11" t="s">
         <v>20</v>
       </c>
@@ -3866,7 +3858,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="41"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="18" t="s">
         <v>21</v>
       </c>
@@ -3901,7 +3893,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="41"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="18" t="s">
         <v>21</v>
       </c>
@@ -3936,7 +3928,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="41"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="18" t="s">
         <v>21</v>
       </c>
@@ -3971,7 +3963,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="41"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="18" t="s">
         <v>22</v>
       </c>
@@ -4006,7 +3998,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="41"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="18" t="s">
         <v>22</v>
       </c>
@@ -4041,7 +4033,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="42"/>
+      <c r="A91" s="49"/>
       <c r="B91" s="21" t="s">
         <v>22</v>
       </c>
@@ -4076,7 +4068,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B92" s="17" t="s">
@@ -4113,7 +4105,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="41"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="18" t="s">
         <v>20</v>
       </c>
@@ -4148,7 +4140,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="41"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="18" t="s">
         <v>20</v>
       </c>
@@ -4183,7 +4175,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="41"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="18" t="s">
         <v>21</v>
       </c>
@@ -4218,7 +4210,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="41"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="2" t="s">
         <v>21</v>
       </c>
@@ -4253,7 +4245,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="41"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="18" t="s">
         <v>21</v>
       </c>
@@ -4288,7 +4280,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="41"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="18" t="s">
         <v>22</v>
       </c>
@@ -4323,7 +4315,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="41"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="18" t="s">
         <v>22</v>
       </c>
@@ -4358,7 +4350,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="42"/>
+      <c r="A100" s="49"/>
       <c r="B100" s="21" t="s">
         <v>22</v>
       </c>
@@ -4412,10 +4404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C479AD40-E260-1246-9AE2-5C137412ACB7}">
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214:E215"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4452,44 +4444,44 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="43">
         <v>-1.2E-2</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="66">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="40">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="40">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H2" s="51" t="str">
+      <c r="H2" s="41" t="str">
         <f>CONCATENATE("[",F2, ", ", G2, "]")</f>
         <v>[-0.052, 0.028]</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="44">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="35">
         <v>-0.18099999999999999</v>
       </c>
@@ -4502,23 +4494,23 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="45">
         <v>0.125</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="68">
         <v>1E-3</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4">
         <v>0.223</v>
       </c>
       <c r="H4" s="36" t="str">
@@ -4527,17 +4519,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="44">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="35">
         <v>-7.0999999999999994E-2</v>
       </c>
@@ -4550,23 +4542,23 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="53" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="45">
         <v>1.4E-2</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="68">
         <v>4.7E-2</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6">
         <v>-3.9E-2</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="H6" s="36" t="str">
@@ -4575,65 +4567,65 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="46">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="7">
         <v>-7.0999999999999994E-2</v>
       </c>
       <c r="G7" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="54" t="str">
+      <c r="H7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>[-0.071, 0.005]</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="50" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="43">
         <v>-2.7E-2</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="71">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="40">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="40">
         <v>1.2E-2</v>
       </c>
-      <c r="H8" s="51" t="str">
+      <c r="H8" s="41" t="str">
         <f>CONCATENATE("[",F8, ", ", G8, "]")</f>
         <v>[-0.067, 0.012]</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="44">
         <v>2.4E-2</v>
       </c>
-      <c r="E9" s="60"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="35">
         <v>-3.2000000000000001E-2</v>
       </c>
@@ -4646,23 +4638,23 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="53" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="45">
         <v>-0.18</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10">
         <v>-0.25800000000000001</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10">
         <v>-0.10299999999999999</v>
       </c>
       <c r="H10" s="36" t="str">
@@ -4671,17 +4663,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="44">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="35">
         <v>-5.0999999999999997E-2</v>
       </c>
@@ -4694,23 +4686,23 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="53" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="45">
         <v>0.01</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="69">
         <v>0.105</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12">
         <v>-4.1000000000000002E-2</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12">
         <v>6.2E-2</v>
       </c>
       <c r="H12" s="36" t="str">
@@ -4719,65 +4711,65 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="46">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="7">
         <v>-6.3E-2</v>
       </c>
       <c r="G13" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H13" s="54" t="str">
+      <c r="H13" s="42" t="str">
         <f t="shared" si="1"/>
         <v>[-0.063, 0.013]</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="50" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="43">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="40">
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="40">
         <v>2.7E-2</v>
       </c>
-      <c r="H14" s="51" t="str">
+      <c r="H14" s="41" t="str">
         <f>CONCATENATE("[",F14, ", ", G14, "]")</f>
         <v>[-0.058, 0.027]</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="44">
         <v>-0.19800000000000001</v>
       </c>
-      <c r="E15" s="47"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="35">
         <v>-0.25800000000000001</v>
       </c>
@@ -4790,23 +4782,23 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="53" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="45">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="68">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16">
         <v>0.14899999999999999</v>
       </c>
       <c r="H16" s="36" t="str">
@@ -4815,17 +4807,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="44">
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="E17" s="47"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="35">
         <v>-8.5000000000000006E-2</v>
       </c>
@@ -4838,23 +4830,23 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="53" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="45">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18">
         <v>-0.24099999999999999</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18">
         <v>-0.109</v>
       </c>
       <c r="H18" s="36" t="str">
@@ -4863,67 +4855,67 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="46">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="E19" s="55"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="7">
         <v>-0.06</v>
       </c>
       <c r="G19" s="7">
         <v>2.4E-2</v>
       </c>
-      <c r="H19" s="54" t="str">
+      <c r="H19" s="42" t="str">
         <f t="shared" si="2"/>
         <v>[-0.06, 0.024]</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="50" t="s">
+      <c r="B20" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="43">
         <v>0.126</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="66">
         <v>1.6E-2</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="40">
         <v>7.8E-2</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="40">
         <v>0.17399999999999999</v>
       </c>
-      <c r="H20" s="51" t="str">
+      <c r="H20" s="41" t="str">
         <f>CONCATENATE("[",F20, ", ", G20, "]")</f>
         <v>[0.078, 0.174]</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="44">
         <v>0.24099999999999999</v>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="35">
         <v>0.15</v>
       </c>
@@ -4936,23 +4928,23 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="53" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="45">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22">
         <v>-0.124</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="H22" s="36" t="str">
@@ -4961,17 +4953,17 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="44">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E23" s="47"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="35">
         <v>9.9000000000000005E-2</v>
       </c>
@@ -4984,23 +4976,23 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="53" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="45">
         <v>0.159</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="69">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24">
         <v>0.221</v>
       </c>
       <c r="H24" s="36" t="str">
@@ -5009,65 +5001,65 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="46">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E25" s="58"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="G25" s="7">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H25" s="54" t="str">
+      <c r="H25" s="42" t="str">
         <f t="shared" si="3"/>
         <v>[0.086, 0.179]</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="50" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="43">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="71">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="40">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="40">
         <v>1.6E-2</v>
       </c>
-      <c r="H26" s="51" t="str">
+      <c r="H26" s="41" t="str">
         <f>CONCATENATE("[",F26, ", ", G26, "]")</f>
         <v>[-0.033, 0.016]</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="44">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="35">
         <v>-6.0000000000000001E-3</v>
       </c>
@@ -5080,23 +5072,23 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="53" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="45">
         <v>0.113</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28">
         <v>0.05</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28">
         <v>0.17499999999999999</v>
       </c>
       <c r="H28" s="36" t="str">
@@ -5105,17 +5097,17 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="44">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="E29" s="67"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="35">
         <v>-3.3000000000000002E-2</v>
       </c>
@@ -5128,23 +5120,23 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="53" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="45">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="55">
         <v>0.28399999999999997</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30">
         <v>2.3E-2</v>
       </c>
       <c r="H30" s="36" t="str">
@@ -5153,65 +5145,65 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="46">
         <v>0</v>
       </c>
-      <c r="E31" s="69"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="7">
         <v>-2.3E-2</v>
       </c>
       <c r="G31" s="7">
         <v>2.4E-2</v>
       </c>
-      <c r="H31" s="54" t="str">
+      <c r="H31" s="42" t="str">
         <f t="shared" si="4"/>
         <v>[-0.023, 0.024]</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
-      <c r="B32" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="50" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="43">
         <v>0.112</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="64">
         <v>2E-3</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32" s="40">
         <v>6.3E-2</v>
       </c>
-      <c r="G32" s="50">
+      <c r="G32" s="40">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H32" s="51" t="str">
+      <c r="H32" s="41" t="str">
         <f>CONCATENATE("[",F32, ", ", G32, "]")</f>
         <v>[0.063, 0.162]</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="44">
         <v>0.25</v>
       </c>
-      <c r="E33" s="67"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="35">
         <v>0.161</v>
       </c>
@@ -5224,17 +5216,17 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="53" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="64">
+      <c r="D34" s="45">
         <v>0.02</v>
       </c>
-      <c r="E34" s="66">
+      <c r="E34" s="58">
         <v>2.7E-2</v>
       </c>
       <c r="F34" s="35">
@@ -5249,17 +5241,17 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="44">
         <v>0.13</v>
       </c>
-      <c r="E35" s="67"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="35">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -5272,23 +5264,23 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
-      <c r="B36" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="53" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="45">
         <v>0.16700000000000001</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="55">
         <v>0.115</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36">
         <v>9.4E-2</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G36">
         <v>0.24</v>
       </c>
       <c r="H36" s="36" t="str">
@@ -5297,67 +5289,67 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="46">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E37" s="69"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="G37" s="7">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H37" s="54" t="str">
+      <c r="H37" s="42" t="str">
         <f t="shared" si="5"/>
         <v>[0.071, 0.166]</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="50" t="s">
+      <c r="B38" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="43">
         <v>0.155</v>
       </c>
-      <c r="E38" s="70">
+      <c r="E38" s="64">
         <v>2E-3</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38" s="40">
         <v>6.2E-2</v>
       </c>
-      <c r="G38" s="50">
+      <c r="G38" s="40">
         <v>0.249</v>
       </c>
-      <c r="H38" s="51" t="str">
+      <c r="H38" s="41" t="str">
         <f>CONCATENATE("[",F38, ", ", G38, "]")</f>
         <v>[0.062, 0.249]</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="44">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E39" s="67"/>
+      <c r="E39" s="65"/>
       <c r="F39" s="35">
         <v>-0.126</v>
       </c>
@@ -5370,23 +5362,23 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="53" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="64">
+      <c r="D40" s="45">
         <v>0.188</v>
       </c>
-      <c r="E40" s="68">
+      <c r="E40" s="55">
         <v>0.32700000000000001</v>
       </c>
-      <c r="F40" s="56">
+      <c r="F40">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G40">
         <v>0.32700000000000001</v>
       </c>
       <c r="H40" s="36" t="str">
@@ -5395,17 +5387,17 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="62">
+      <c r="D41" s="44">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E41" s="71"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="35">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -5418,23 +5410,23 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="53" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="64">
+      <c r="D42" s="45">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E42" s="66">
+      <c r="E42" s="58">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42">
         <v>0.152</v>
       </c>
       <c r="H42" s="36" t="str">
@@ -5443,65 +5435,65 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="65">
+      <c r="D43" s="46">
         <v>0.155</v>
       </c>
-      <c r="E43" s="72"/>
+      <c r="E43" s="59"/>
       <c r="F43" s="7">
         <v>6.3E-2</v>
       </c>
       <c r="G43" s="7">
         <v>0.246</v>
       </c>
-      <c r="H43" s="54" t="str">
+      <c r="H43" s="42" t="str">
         <f t="shared" si="6"/>
         <v>[0.063, 0.246]</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
-      <c r="B44" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="50" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="43">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E44" s="73">
+      <c r="E44" s="53">
         <v>0.85</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="40">
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="G44" s="50">
+      <c r="G44" s="40">
         <v>0.114</v>
       </c>
-      <c r="H44" s="51" t="str">
+      <c r="H44" s="41" t="str">
         <f>CONCATENATE("[",F44, ", ", G44, "]")</f>
         <v>[-0.058, 0.114]</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="62">
+      <c r="D45" s="44">
         <v>1.9E-2</v>
       </c>
-      <c r="E45" s="71"/>
+      <c r="E45" s="54"/>
       <c r="F45" s="35">
         <v>-9.4E-2</v>
       </c>
@@ -5514,23 +5506,23 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="52"/>
-      <c r="B46" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="53" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="64">
+      <c r="D46" s="45">
         <v>9.4E-2</v>
       </c>
-      <c r="E46" s="68">
+      <c r="E46" s="55">
         <v>0.23799999999999999</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F46">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G46">
         <v>0.23300000000000001</v>
       </c>
       <c r="H46" s="36" t="str">
@@ -5539,17 +5531,17 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="62">
+      <c r="D47" s="44">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E47" s="71"/>
+      <c r="E47" s="54"/>
       <c r="F47" s="35">
         <v>-6.2E-2</v>
       </c>
@@ -5562,23 +5554,23 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
-      <c r="B48" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="53" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="64">
+      <c r="D48" s="45">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E48" s="68">
+      <c r="E48" s="55">
         <v>0.96399999999999997</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F48">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="G48" s="56">
+      <c r="G48">
         <v>0.13800000000000001</v>
       </c>
       <c r="H48" s="36" t="str">
@@ -5587,65 +5579,65 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="65">
+      <c r="D49" s="46">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E49" s="69"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="7">
         <v>-5.8000000000000003E-2</v>
       </c>
       <c r="G49" s="7">
         <v>0.111</v>
       </c>
-      <c r="H49" s="54" t="str">
+      <c r="H49" s="42" t="str">
         <f t="shared" si="7"/>
         <v>[-0.058, 0.111]</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="52"/>
-      <c r="B50" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="50" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="43">
         <v>0.189</v>
       </c>
-      <c r="E50" s="70" t="s">
+      <c r="E50" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F50" s="40">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G50" s="50">
+      <c r="G50" s="40">
         <v>0.28299999999999997</v>
       </c>
-      <c r="H50" s="51" t="str">
+      <c r="H50" s="41" t="str">
         <f>CONCATENATE("[",F50, ", ", G50, "]")</f>
         <v>[0.095, 0.283]</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="62">
+      <c r="D51" s="44">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E51" s="67"/>
+      <c r="E51" s="65"/>
       <c r="F51" s="35">
         <v>-0.186</v>
       </c>
@@ -5658,23 +5650,23 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
-      <c r="B52" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="53" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="64">
+      <c r="D52" s="45">
         <v>0.13800000000000001</v>
       </c>
-      <c r="E52" s="68">
+      <c r="E52" s="55">
         <v>0.72199999999999998</v>
       </c>
-      <c r="F52" s="56">
+      <c r="F52">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="G52" s="56">
+      <c r="G52">
         <v>0.28499999999999998</v>
       </c>
       <c r="H52" s="36" t="str">
@@ -5683,17 +5675,17 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="62">
+      <c r="D53" s="44">
         <v>0.159</v>
       </c>
-      <c r="E53" s="71"/>
+      <c r="E53" s="54"/>
       <c r="F53" s="35">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -5706,23 +5698,23 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
-      <c r="B54" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="53" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="64">
+      <c r="D54" s="45">
         <v>0.107</v>
       </c>
-      <c r="E54" s="68">
+      <c r="E54" s="55">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F54" s="56">
+      <c r="F54">
         <v>-1.2E-2</v>
       </c>
-      <c r="G54" s="56">
+      <c r="G54">
         <v>0.22600000000000001</v>
       </c>
       <c r="H54" s="36" t="str">
@@ -5731,67 +5723,67 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="65">
+      <c r="D55" s="46">
         <v>0.16700000000000001</v>
       </c>
-      <c r="E55" s="69"/>
+      <c r="E55" s="63"/>
       <c r="F55" s="7">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="G55" s="7">
         <v>0.26200000000000001</v>
       </c>
-      <c r="H55" s="54" t="str">
+      <c r="H55" s="42" t="str">
         <f t="shared" si="8"/>
         <v>[0.073, 0.262]</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="50" t="s">
+      <c r="B56" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="61">
+      <c r="D56" s="43">
         <v>-9.8000000000000004E-2</v>
       </c>
-      <c r="E56" s="73">
+      <c r="E56" s="53">
         <v>0.379</v>
       </c>
-      <c r="F56" s="50">
+      <c r="F56" s="40">
         <v>-0.16400000000000001</v>
       </c>
-      <c r="G56" s="50">
+      <c r="G56" s="40">
         <v>-3.1E-2</v>
       </c>
-      <c r="H56" s="51" t="str">
+      <c r="H56" s="41" t="str">
         <f>CONCATENATE("[",F56, ", ", G56, "]")</f>
         <v>[-0.164, -0.031]</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="62">
+      <c r="D57" s="44">
         <v>-2.4E-2</v>
       </c>
-      <c r="E57" s="71"/>
+      <c r="E57" s="54"/>
       <c r="F57" s="35">
         <v>-0.184</v>
       </c>
@@ -5804,23 +5796,23 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
-      <c r="B58" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="53" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="64">
+      <c r="D58" s="45">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E58" s="66">
+      <c r="E58" s="58">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F58" s="56">
+      <c r="F58">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="G58" s="56">
+      <c r="G58">
         <v>0.155</v>
       </c>
       <c r="H58" s="36" t="str">
@@ -5829,17 +5821,17 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="62">
+      <c r="D59" s="44">
         <v>-0.1</v>
       </c>
-      <c r="E59" s="67"/>
+      <c r="E59" s="65"/>
       <c r="F59" s="35">
         <v>-0.16500000000000001</v>
       </c>
@@ -5852,23 +5844,23 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
-      <c r="B60" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="53" t="s">
+      <c r="A60" s="51"/>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
         <v>38</v>
       </c>
-      <c r="D60" s="64">
+      <c r="D60" s="45">
         <v>-0.23300000000000001</v>
       </c>
-      <c r="E60" s="66" t="s">
+      <c r="E60" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="56">
+      <c r="F60">
         <v>-0.312</v>
       </c>
-      <c r="G60" s="56">
+      <c r="G60">
         <v>-0.153</v>
       </c>
       <c r="H60" s="36" t="str">
@@ -5877,65 +5869,65 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D61" s="65">
+      <c r="D61" s="46">
         <v>-7.2999999999999995E-2</v>
       </c>
-      <c r="E61" s="72"/>
+      <c r="E61" s="59"/>
       <c r="F61" s="7">
         <v>-0.13700000000000001</v>
       </c>
       <c r="G61" s="7">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="H61" s="54" t="str">
+      <c r="H61" s="42" t="str">
         <f t="shared" si="9"/>
         <v>[-0.137, -0.008]</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
-      <c r="B62" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="50" t="s">
+      <c r="A62" s="51"/>
+      <c r="B62" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="61">
+      <c r="D62" s="43">
         <v>0.499</v>
       </c>
-      <c r="E62" s="70">
+      <c r="E62" s="64">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F62" s="50">
+      <c r="F62" s="40">
         <v>0.35199999999999998</v>
       </c>
-      <c r="G62" s="50">
+      <c r="G62" s="40">
         <v>0.64600000000000002</v>
       </c>
-      <c r="H62" s="51" t="str">
+      <c r="H62" s="41" t="str">
         <f>CONCATENATE("[",F62, ", ", G62, "]")</f>
         <v>[0.352, 0.646]</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="62">
+      <c r="D63" s="44">
         <v>0.25700000000000001</v>
       </c>
-      <c r="E63" s="67"/>
+      <c r="E63" s="65"/>
       <c r="F63" s="35">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -5948,23 +5940,23 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
-      <c r="B64" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="53" t="s">
+      <c r="A64" s="51"/>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="64">
+      <c r="D64" s="45">
         <v>0.69699999999999995</v>
       </c>
-      <c r="E64" s="66" t="s">
+      <c r="E64" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="56">
+      <c r="F64">
         <v>0.53</v>
       </c>
-      <c r="G64" s="56">
+      <c r="G64">
         <v>0.86399999999999999</v>
       </c>
       <c r="H64" s="36" t="str">
@@ -5973,17 +5965,17 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C65" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D65" s="62">
+      <c r="D65" s="44">
         <v>0.46800000000000003</v>
       </c>
-      <c r="E65" s="67"/>
+      <c r="E65" s="65"/>
       <c r="F65" s="35">
         <v>0.32300000000000001</v>
       </c>
@@ -5996,23 +5988,23 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
-      <c r="B66" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="53" t="s">
+      <c r="A66" s="51"/>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="64">
+      <c r="D66" s="45">
         <v>0.77400000000000002</v>
       </c>
-      <c r="E66" s="66" t="s">
+      <c r="E66" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="56">
+      <c r="F66">
         <v>0.59599999999999997</v>
       </c>
-      <c r="G66" s="56">
+      <c r="G66">
         <v>0.95199999999999996</v>
       </c>
       <c r="H66" s="36" t="str">
@@ -6021,65 +6013,65 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="65">
+      <c r="D67" s="46">
         <v>0.441</v>
       </c>
-      <c r="E67" s="72"/>
+      <c r="E67" s="59"/>
       <c r="F67" s="7">
         <v>0.29599999999999999</v>
       </c>
       <c r="G67" s="7">
         <v>0.58599999999999997</v>
       </c>
-      <c r="H67" s="54" t="str">
+      <c r="H67" s="42" t="str">
         <f t="shared" si="10"/>
         <v>[0.296, 0.586]</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="52"/>
-      <c r="B68" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="50" t="s">
+      <c r="A68" s="51"/>
+      <c r="B68" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="61">
+      <c r="D68" s="43">
         <v>0.36599999999999999</v>
       </c>
-      <c r="E68" s="73">
+      <c r="E68" s="53">
         <v>0.95</v>
       </c>
-      <c r="F68" s="50">
+      <c r="F68" s="40">
         <v>0.23200000000000001</v>
       </c>
-      <c r="G68" s="50">
+      <c r="G68" s="40">
         <v>0.5</v>
       </c>
-      <c r="H68" s="51" t="str">
+      <c r="H68" s="41" t="str">
         <f>CONCATENATE("[",F68, ", ", G68, "]")</f>
         <v>[0.232, 0.5]</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="62">
+      <c r="D69" s="44">
         <v>0.35899999999999999</v>
       </c>
-      <c r="E69" s="71"/>
+      <c r="E69" s="54"/>
       <c r="F69" s="35">
         <v>0.12</v>
       </c>
@@ -6092,23 +6084,23 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
-      <c r="B70" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="53" t="s">
+      <c r="A70" s="51"/>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="64">
+      <c r="D70" s="45">
         <v>0.52600000000000002</v>
       </c>
-      <c r="E70" s="66">
+      <c r="E70" s="58">
         <v>2.7E-2</v>
       </c>
-      <c r="F70" s="56">
+      <c r="F70">
         <v>0.33300000000000002</v>
       </c>
-      <c r="G70" s="56">
+      <c r="G70">
         <v>0.72</v>
       </c>
       <c r="H70" s="36" t="str">
@@ -6117,17 +6109,17 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="52"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="62">
+      <c r="D71" s="44">
         <v>0.35599999999999998</v>
       </c>
-      <c r="E71" s="67"/>
+      <c r="E71" s="65"/>
       <c r="F71" s="35">
         <v>0.224</v>
       </c>
@@ -6140,23 +6132,23 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
-      <c r="B72" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="53" t="s">
+      <c r="A72" s="51"/>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="64">
+      <c r="D72" s="45">
         <v>0.25700000000000001</v>
       </c>
-      <c r="E72" s="66" t="s">
+      <c r="E72" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="56">
+      <c r="F72">
         <v>0.112</v>
       </c>
-      <c r="G72" s="56">
+      <c r="G72">
         <v>0.40100000000000002</v>
       </c>
       <c r="H72" s="36" t="str">
@@ -6165,67 +6157,67 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D73" s="65">
+      <c r="D73" s="46">
         <v>0.38100000000000001</v>
       </c>
-      <c r="E73" s="72"/>
+      <c r="E73" s="59"/>
       <c r="F73" s="7">
         <v>0.249</v>
       </c>
       <c r="G73" s="7">
         <v>0.51200000000000001</v>
       </c>
-      <c r="H73" s="54" t="str">
+      <c r="H73" s="42" t="str">
         <f t="shared" si="11"/>
         <v>[0.249, 0.512]</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="49" t="s">
+      <c r="A74" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="50" t="s">
+      <c r="B74" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D74" s="61">
+      <c r="D74" s="43">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E74" s="73">
+      <c r="E74" s="53">
         <v>0.26</v>
       </c>
-      <c r="F74" s="50">
+      <c r="F74" s="40">
         <v>-0.23599999999999999</v>
       </c>
-      <c r="G74" s="50">
+      <c r="G74" s="40">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H74" s="51" t="str">
+      <c r="H74" s="41" t="str">
         <f>CONCATENATE("[",F74, ", ", G74, "]")</f>
         <v>[-0.236, 0.096]</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="62">
+      <c r="D75" s="44">
         <v>0.05</v>
       </c>
-      <c r="E75" s="71"/>
+      <c r="E75" s="54"/>
       <c r="F75" s="35">
         <v>-0.193</v>
       </c>
@@ -6238,23 +6230,23 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
-      <c r="B76" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="53" t="s">
+      <c r="A76" s="51"/>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
         <v>30</v>
       </c>
-      <c r="D76" s="64">
+      <c r="D76" s="45">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="E76" s="66" t="s">
+      <c r="E76" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F76" s="56">
+      <c r="F76">
         <v>-0.249</v>
       </c>
-      <c r="G76" s="56">
+      <c r="G76">
         <v>7.8E-2</v>
       </c>
       <c r="H76" s="36" t="str">
@@ -6263,17 +6255,17 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="62">
+      <c r="D77" s="44">
         <v>0.34799999999999998</v>
       </c>
-      <c r="E77" s="67"/>
+      <c r="E77" s="65"/>
       <c r="F77" s="35">
         <v>0.154</v>
       </c>
@@ -6286,23 +6278,23 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
-      <c r="B78" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="53" t="s">
+      <c r="A78" s="51"/>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="64">
+      <c r="D78" s="45">
         <v>-0.157</v>
       </c>
-      <c r="E78" s="68">
+      <c r="E78" s="55">
         <v>0.11</v>
       </c>
-      <c r="F78" s="56">
+      <c r="F78">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="G78" s="56">
+      <c r="G78">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="H78" s="36" t="str">
@@ -6311,65 +6303,65 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="52"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D79" s="65">
+      <c r="D79" s="46">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="E79" s="69"/>
+      <c r="E79" s="63"/>
       <c r="F79" s="7">
         <v>-0.20300000000000001</v>
       </c>
       <c r="G79" s="7">
         <v>0.126</v>
       </c>
-      <c r="H79" s="54" t="str">
+      <c r="H79" s="42" t="str">
         <f t="shared" si="12"/>
         <v>[-0.203, 0.126]</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
-      <c r="B80" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="50" t="s">
+      <c r="A80" s="51"/>
+      <c r="B80" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="61">
+      <c r="D80" s="43">
         <v>0.56599999999999995</v>
       </c>
-      <c r="E80" s="73">
+      <c r="E80" s="53">
         <v>0.63900000000000001</v>
       </c>
-      <c r="F80" s="50">
+      <c r="F80" s="40">
         <v>0.316</v>
       </c>
-      <c r="G80" s="50">
+      <c r="G80" s="40">
         <v>0.81599999999999995</v>
       </c>
-      <c r="H80" s="51" t="str">
+      <c r="H80" s="41" t="str">
         <f>CONCATENATE("[",F80, ", ", G80, "]")</f>
         <v>[0.316, 0.816]</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="52"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="62">
+      <c r="D81" s="44">
         <v>0.51</v>
       </c>
-      <c r="E81" s="71"/>
+      <c r="E81" s="54"/>
       <c r="F81" s="35">
         <v>0.193</v>
       </c>
@@ -6382,23 +6374,23 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
-      <c r="B82" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="53" t="s">
+      <c r="A82" s="51"/>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="64">
+      <c r="D82" s="45">
         <v>0.64500000000000002</v>
       </c>
-      <c r="E82" s="68">
+      <c r="E82" s="55">
         <v>0.373</v>
       </c>
-      <c r="F82" s="56">
+      <c r="F82">
         <v>0.373</v>
       </c>
-      <c r="G82" s="56">
+      <c r="G82">
         <v>0.91700000000000004</v>
       </c>
       <c r="H82" s="36" t="str">
@@ -6407,17 +6399,17 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="62">
+      <c r="D83" s="44">
         <v>0.55400000000000005</v>
       </c>
-      <c r="E83" s="71"/>
+      <c r="E83" s="54"/>
       <c r="F83" s="35">
         <v>0.307</v>
       </c>
@@ -6430,23 +6422,23 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
-      <c r="B84" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="53" t="s">
+      <c r="A84" s="51"/>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="64">
+      <c r="D84" s="45">
         <v>1.034</v>
       </c>
-      <c r="E84" s="66" t="s">
+      <c r="E84" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F84" s="56">
+      <c r="F84">
         <v>0.753</v>
       </c>
-      <c r="G84" s="56">
+      <c r="G84">
         <v>1.3140000000000001</v>
       </c>
       <c r="H84" s="36" t="str">
@@ -6455,65 +6447,65 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="52"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="65">
+      <c r="D85" s="46">
         <v>0.46700000000000003</v>
       </c>
-      <c r="E85" s="72"/>
+      <c r="E85" s="59"/>
       <c r="F85" s="7">
         <v>0.219</v>
       </c>
       <c r="G85" s="7">
         <v>0.71499999999999997</v>
       </c>
-      <c r="H85" s="54" t="str">
+      <c r="H85" s="42" t="str">
         <f t="shared" si="13"/>
         <v>[0.219, 0.715]</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
-      <c r="B86" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="50" t="s">
+      <c r="A86" s="51"/>
+      <c r="B86" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="61">
+      <c r="D86" s="43">
         <v>0.42</v>
       </c>
-      <c r="E86" s="73">
+      <c r="E86" s="53">
         <v>0.12</v>
       </c>
-      <c r="F86" s="50">
+      <c r="F86" s="40">
         <v>0.188</v>
       </c>
-      <c r="G86" s="50">
+      <c r="G86" s="40">
         <v>0.65100000000000002</v>
       </c>
-      <c r="H86" s="51" t="str">
+      <c r="H86" s="41" t="str">
         <f>CONCATENATE("[",F86, ", ", G86, "]")</f>
         <v>[0.188, 0.651]</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="52"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="62">
+      <c r="D87" s="44">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E87" s="71"/>
+      <c r="E87" s="54"/>
       <c r="F87" s="35">
         <v>-6.8000000000000005E-2</v>
       </c>
@@ -6526,23 +6518,23 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="52"/>
-      <c r="B88" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="53" t="s">
+      <c r="A88" s="51"/>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="64">
+      <c r="D88" s="45">
         <v>0.63800000000000001</v>
       </c>
-      <c r="E88" s="66">
+      <c r="E88" s="58">
         <v>1E-3</v>
       </c>
-      <c r="F88" s="56">
+      <c r="F88">
         <v>0.36599999999999999</v>
       </c>
-      <c r="G88" s="56">
+      <c r="G88">
         <v>0.91</v>
       </c>
       <c r="H88" s="36" t="str">
@@ -6551,18 +6543,18 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D89" s="62">
+      <c r="D89" s="44">
         <v>0.38500000000000001</v>
       </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="62">
+      <c r="E89" s="65"/>
+      <c r="F89" s="44">
         <v>0.156</v>
       </c>
       <c r="G89" s="35">
@@ -6574,23 +6566,23 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="52"/>
-      <c r="B90" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="53" t="s">
+      <c r="A90" s="51"/>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
         <v>38</v>
       </c>
-      <c r="D90" s="64">
+      <c r="D90" s="45">
         <v>0.376</v>
       </c>
-      <c r="E90" s="68">
+      <c r="E90" s="55">
         <v>0.69299999999999995</v>
       </c>
-      <c r="F90" s="64">
+      <c r="F90" s="45">
         <v>0.115</v>
       </c>
-      <c r="G90" s="56">
+      <c r="G90">
         <v>0.63700000000000001</v>
       </c>
       <c r="H90" s="36" t="str">
@@ -6599,57 +6591,57 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D91" s="65">
+      <c r="D91" s="46">
         <v>0.40600000000000003</v>
       </c>
-      <c r="E91" s="69"/>
-      <c r="F91" s="65">
+      <c r="E91" s="63"/>
+      <c r="F91" s="46">
         <v>0.17599999999999999</v>
       </c>
       <c r="G91" s="7">
         <v>0.63600000000000001</v>
       </c>
-      <c r="H91" s="54" t="str">
+      <c r="H91" s="42" t="str">
         <f t="shared" si="14"/>
         <v>[0.176, 0.636]</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="50" t="s">
+      <c r="B92" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="50">
+      <c r="D92" s="40">
         <v>0.16300000000000001</v>
       </c>
-      <c r="E92" s="73">
+      <c r="E92" s="53">
         <v>0.153</v>
       </c>
-      <c r="F92" s="61">
+      <c r="F92" s="43">
         <v>0.06</v>
       </c>
-      <c r="G92" s="50">
+      <c r="G92" s="40">
         <v>0.26600000000000001</v>
       </c>
-      <c r="H92" s="51" t="str">
+      <c r="H92" s="41" t="str">
         <f>CONCATENATE("[",F92, ", ", G92, "]")</f>
         <v>[0.06, 0.266]</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="52"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="35" t="s">
         <v>20</v>
       </c>
@@ -6659,8 +6651,8 @@
       <c r="D93" s="35">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E93" s="71"/>
-      <c r="F93" s="62">
+      <c r="E93" s="54"/>
+      <c r="F93" s="44">
         <v>-0.16500000000000001</v>
       </c>
       <c r="G93" s="35">
@@ -6672,23 +6664,23 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
-      <c r="B94" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="53" t="s">
+      <c r="A94" s="51"/>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="64">
+      <c r="D94" s="45">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="E94" s="66" t="s">
+      <c r="E94" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F94" s="64">
+      <c r="F94" s="45">
         <v>-0.19600000000000001</v>
       </c>
-      <c r="G94" s="64">
+      <c r="G94" s="45">
         <v>0.105</v>
       </c>
       <c r="H94" s="36" t="str">
@@ -6697,7 +6689,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="52"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="35" t="s">
         <v>20</v>
       </c>
@@ -6707,11 +6699,11 @@
       <c r="D95" s="35">
         <v>0.16300000000000001</v>
       </c>
-      <c r="E95" s="67"/>
-      <c r="F95" s="62">
+      <c r="E95" s="65"/>
+      <c r="F95" s="44">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="G95" s="62">
+      <c r="G95" s="44">
         <v>0.26500000000000001</v>
       </c>
       <c r="H95" s="37" t="str">
@@ -6720,23 +6712,23 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
-      <c r="B96" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" s="53" t="s">
+      <c r="A96" s="51"/>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
         <v>38</v>
       </c>
-      <c r="D96" s="56">
+      <c r="D96">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E96" s="75">
+      <c r="E96" s="56">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F96" s="64">
+      <c r="F96" s="45">
         <v>-8.8999999999999996E-2</v>
       </c>
-      <c r="G96" s="64">
+      <c r="G96" s="45">
         <v>0.21099999999999999</v>
       </c>
       <c r="H96" s="36" t="str">
@@ -6745,7 +6737,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="7" t="s">
         <v>20</v>
       </c>
@@ -6755,45 +6747,45 @@
       <c r="D97" s="7">
         <v>0.16700000000000001</v>
       </c>
-      <c r="E97" s="76"/>
-      <c r="F97" s="65">
+      <c r="E97" s="57"/>
+      <c r="F97" s="46">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G97" s="65">
+      <c r="G97" s="46">
         <v>0.27</v>
       </c>
-      <c r="H97" s="54" t="str">
+      <c r="H97" s="42" t="str">
         <f t="shared" si="15"/>
         <v>[0.064, 0.27]</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
-      <c r="B98" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98" s="50" t="s">
+      <c r="A98" s="51"/>
+      <c r="B98" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="50">
+      <c r="D98" s="40">
         <v>-0.379</v>
       </c>
-      <c r="E98" s="73">
+      <c r="E98" s="53">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F98" s="61">
+      <c r="F98" s="43">
         <v>-0.53600000000000003</v>
       </c>
-      <c r="G98" s="61">
+      <c r="G98" s="43">
         <v>-0.221</v>
       </c>
-      <c r="H98" s="51" t="str">
+      <c r="H98" s="41" t="str">
         <f>CONCATENATE("[",F98, ", ", G98, "]")</f>
         <v>[-0.536, -0.221]</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="52"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="35" t="s">
         <v>21</v>
       </c>
@@ -6803,11 +6795,11 @@
       <c r="D99" s="35">
         <v>-0.47899999999999998</v>
       </c>
-      <c r="E99" s="71"/>
-      <c r="F99" s="62">
+      <c r="E99" s="54"/>
+      <c r="F99" s="44">
         <v>-0.73099999999999998</v>
       </c>
-      <c r="G99" s="62">
+      <c r="G99" s="44">
         <v>-0.22800000000000001</v>
       </c>
       <c r="H99" s="37" t="str">
@@ -6816,23 +6808,23 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="52"/>
-      <c r="B100" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" s="53" t="s">
+      <c r="A100" s="51"/>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
         <v>30</v>
       </c>
-      <c r="D100" s="56">
+      <c r="D100">
         <v>-0.45400000000000001</v>
       </c>
-      <c r="E100" s="68">
+      <c r="E100" s="55">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F100" s="63">
+      <c r="F100" s="45">
         <v>-0.64700000000000002</v>
       </c>
-      <c r="G100" s="63">
+      <c r="G100" s="45">
         <v>-0.26200000000000001</v>
       </c>
       <c r="H100" s="36" t="str">
@@ -6841,7 +6833,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="52"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="35" t="s">
         <v>21</v>
       </c>
@@ -6851,11 +6843,11 @@
       <c r="D101" s="35">
         <v>-0.38300000000000001</v>
       </c>
-      <c r="E101" s="71"/>
-      <c r="F101" s="62">
+      <c r="E101" s="54"/>
+      <c r="F101" s="44">
         <v>-0.53900000000000003</v>
       </c>
-      <c r="G101" s="62">
+      <c r="G101" s="44">
         <v>-0.22600000000000001</v>
       </c>
       <c r="H101" s="37" t="str">
@@ -6864,23 +6856,23 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="52"/>
-      <c r="B102" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" s="53" t="s">
+      <c r="A102" s="51"/>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
         <v>38</v>
       </c>
-      <c r="D102" s="56">
+      <c r="D102">
         <v>-0.65100000000000002</v>
       </c>
-      <c r="E102" s="66" t="s">
+      <c r="E102" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F102" s="64">
+      <c r="F102" s="45">
         <v>-0.85199999999999998</v>
       </c>
-      <c r="G102" s="64">
+      <c r="G102" s="45">
         <v>-0.45</v>
       </c>
       <c r="H102" s="36" t="str">
@@ -6889,7 +6881,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="52"/>
+      <c r="A103" s="51"/>
       <c r="B103" s="7" t="s">
         <v>21</v>
       </c>
@@ -6899,45 +6891,45 @@
       <c r="D103" s="7">
         <v>-0.34699999999999998</v>
       </c>
-      <c r="E103" s="72"/>
-      <c r="F103" s="65">
+      <c r="E103" s="59"/>
+      <c r="F103" s="46">
         <v>-0.503</v>
       </c>
-      <c r="G103" s="65">
+      <c r="G103" s="46">
         <v>-0.19</v>
       </c>
-      <c r="H103" s="54" t="str">
+      <c r="H103" s="42" t="str">
         <f t="shared" si="16"/>
         <v>[-0.503, -0.19]</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="52"/>
-      <c r="B104" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C104" s="50" t="s">
+      <c r="A104" s="51"/>
+      <c r="B104" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D104" s="50">
+      <c r="D104" s="40">
         <v>-0.22500000000000001</v>
       </c>
-      <c r="E104" s="73">
+      <c r="E104" s="53">
         <v>0.9</v>
       </c>
-      <c r="F104" s="61">
+      <c r="F104" s="43">
         <v>-0.34799999999999998</v>
       </c>
-      <c r="G104" s="61">
+      <c r="G104" s="43">
         <v>-0.10299999999999999</v>
       </c>
-      <c r="H104" s="51" t="str">
+      <c r="H104" s="41" t="str">
         <f>CONCATENATE("[",F104, ", ", G104, "]")</f>
         <v>[-0.348, -0.103]</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="52"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="35" t="s">
         <v>22</v>
       </c>
@@ -6947,11 +6939,11 @@
       <c r="D105" s="35">
         <v>-0.24099999999999999</v>
       </c>
-      <c r="E105" s="71"/>
-      <c r="F105" s="62">
+      <c r="E105" s="54"/>
+      <c r="F105" s="44">
         <v>-0.501</v>
       </c>
-      <c r="G105" s="62">
+      <c r="G105" s="44">
         <v>1.9E-2</v>
       </c>
       <c r="H105" s="37" t="str">
@@ -6960,23 +6952,23 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
-      <c r="B106" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="53" t="s">
+      <c r="A106" s="51"/>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
         <v>30</v>
       </c>
-      <c r="D106" s="56">
+      <c r="D106">
         <v>-0.69899999999999995</v>
       </c>
-      <c r="E106" s="66" t="s">
+      <c r="E106" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F106" s="63">
+      <c r="F106" s="45">
         <v>-0.86799999999999999</v>
       </c>
-      <c r="G106" s="63">
+      <c r="G106" s="45">
         <v>-0.52900000000000003</v>
       </c>
       <c r="H106" s="36" t="str">
@@ -6985,21 +6977,21 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="52"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D107" s="62">
+      <c r="D107" s="44">
         <v>-0.20300000000000001</v>
       </c>
-      <c r="E107" s="67"/>
-      <c r="F107" s="62">
+      <c r="E107" s="65"/>
+      <c r="F107" s="44">
         <v>-0.32400000000000001</v>
       </c>
-      <c r="G107" s="62">
+      <c r="G107" s="44">
         <v>-8.3000000000000004E-2</v>
       </c>
       <c r="H107" s="37" t="str">
@@ -7008,23 +7000,23 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
-      <c r="B108" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="53" t="s">
+      <c r="A108" s="51"/>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
         <v>38</v>
       </c>
-      <c r="D108" s="64">
+      <c r="D108" s="45">
         <v>-0.26</v>
       </c>
-      <c r="E108" s="68">
+      <c r="E108" s="55">
         <v>0.54100000000000004</v>
       </c>
-      <c r="F108" s="64">
+      <c r="F108" s="45">
         <v>-0.42299999999999999</v>
       </c>
-      <c r="G108" s="64">
+      <c r="G108" s="45">
         <v>-9.6000000000000002E-2</v>
       </c>
       <c r="H108" s="36" t="str">
@@ -7033,71 +7025,71 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D109" s="65">
+      <c r="D109" s="46">
         <v>-0.221</v>
       </c>
-      <c r="E109" s="69"/>
-      <c r="F109" s="65">
+      <c r="E109" s="63"/>
+      <c r="F109" s="46">
         <v>-0.34300000000000003</v>
       </c>
-      <c r="G109" s="65">
+      <c r="G109" s="46">
         <v>-0.1</v>
       </c>
-      <c r="H109" s="54" t="str">
+      <c r="H109" s="42" t="str">
         <f t="shared" si="17"/>
         <v>[-0.343, -0.1]</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="49" t="s">
+      <c r="A110" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B110" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="50" t="s">
+      <c r="B110" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="61">
+      <c r="D110" s="43">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E110" s="73">
+      <c r="E110" s="53">
         <v>0.89300000000000002</v>
       </c>
-      <c r="F110" s="61">
+      <c r="F110" s="43">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="G110" s="61">
+      <c r="G110" s="43">
         <v>0.25900000000000001</v>
       </c>
-      <c r="H110" s="51" t="str">
+      <c r="H110" s="41" t="str">
         <f>CONCATENATE("[",F110, ", ", G110, "]")</f>
         <v>[-0.081, 0.259]</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="52"/>
+      <c r="A111" s="51"/>
       <c r="B111" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="62">
+      <c r="D111" s="44">
         <v>0.106</v>
       </c>
-      <c r="E111" s="71"/>
-      <c r="F111" s="62">
+      <c r="E111" s="54"/>
+      <c r="F111" s="44">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="G111" s="62">
+      <c r="G111" s="44">
         <v>0.38600000000000001</v>
       </c>
       <c r="H111" s="37" t="str">
@@ -7106,23 +7098,23 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="52"/>
-      <c r="B112" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="53" t="s">
+      <c r="A112" s="51"/>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" t="s">
         <v>30</v>
       </c>
-      <c r="D112" s="63">
+      <c r="D112" s="45">
         <v>-0.14299999999999999</v>
       </c>
-      <c r="E112" s="75">
+      <c r="E112" s="56">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F112" s="63">
+      <c r="F112" s="45">
         <v>-0.44500000000000001</v>
       </c>
-      <c r="G112" s="63">
+      <c r="G112" s="45">
         <v>0.159</v>
       </c>
       <c r="H112" s="36" t="str">
@@ -7131,21 +7123,21 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="52"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C113" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="62">
+      <c r="D113" s="44">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E113" s="78"/>
-      <c r="F113" s="62">
+      <c r="E113" s="62"/>
+      <c r="F113" s="44">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="G113" s="62">
+      <c r="G113" s="44">
         <v>0.27200000000000002</v>
       </c>
       <c r="H113" s="37" t="str">
@@ -7154,23 +7146,23 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="52"/>
-      <c r="B114" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" s="53" t="s">
+      <c r="A114" s="51"/>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="64">
+      <c r="D114" s="45">
         <v>-0.128</v>
       </c>
-      <c r="E114" s="66" t="s">
+      <c r="E114" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F114" s="64">
+      <c r="F114" s="45">
         <v>-0.31900000000000001</v>
       </c>
-      <c r="G114" s="64">
+      <c r="G114" s="45">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="H114" s="36" t="str">
@@ -7179,69 +7171,69 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="52"/>
+      <c r="A115" s="51"/>
       <c r="B115" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D115" s="65">
+      <c r="D115" s="46">
         <v>0.127</v>
       </c>
-      <c r="E115" s="72"/>
-      <c r="F115" s="65">
+      <c r="E115" s="59"/>
+      <c r="F115" s="46">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G115" s="65">
+      <c r="G115" s="46">
         <v>0.29799999999999999</v>
       </c>
-      <c r="H115" s="54" t="str">
+      <c r="H115" s="42" t="str">
         <f t="shared" si="18"/>
         <v>[-0.045, 0.298]</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="52"/>
-      <c r="B116" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="50" t="s">
+      <c r="A116" s="51"/>
+      <c r="B116" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D116" s="61">
+      <c r="D116" s="43">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E116" s="73">
+      <c r="E116" s="53">
         <v>0.104</v>
       </c>
-      <c r="F116" s="61">
+      <c r="F116" s="43">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="G116" s="61">
+      <c r="G116" s="43">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H116" s="51" t="str">
+      <c r="H116" s="41" t="str">
         <f>CONCATENATE("[",F116, ", ", G116, "]")</f>
         <v>[-0.086, 0.264]</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="52"/>
+      <c r="A117" s="51"/>
       <c r="B117" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C117" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D117" s="62">
+      <c r="D117" s="44">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="E117" s="71"/>
-      <c r="F117" s="62">
+      <c r="E117" s="54"/>
+      <c r="F117" s="44">
         <v>-0.315</v>
       </c>
-      <c r="G117" s="62">
+      <c r="G117" s="44">
         <v>0.18</v>
       </c>
       <c r="H117" s="37" t="str">
@@ -7250,23 +7242,23 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="52"/>
-      <c r="B118" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="53" t="s">
+      <c r="A118" s="51"/>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="63">
+      <c r="D118" s="45">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E118" s="68">
+      <c r="E118" s="55">
         <v>0.98</v>
       </c>
-      <c r="F118" s="63">
+      <c r="F118" s="45">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="G118" s="63">
+      <c r="G118" s="45">
         <v>0.35299999999999998</v>
       </c>
       <c r="H118" s="36" t="str">
@@ -7275,21 +7267,21 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="52"/>
+      <c r="A119" s="51"/>
       <c r="B119" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C119" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D119" s="62">
+      <c r="D119" s="44">
         <v>7.8E-2</v>
       </c>
-      <c r="E119" s="71"/>
-      <c r="F119" s="62">
+      <c r="E119" s="54"/>
+      <c r="F119" s="44">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="G119" s="62">
+      <c r="G119" s="44">
         <v>0.253</v>
       </c>
       <c r="H119" s="37" t="str">
@@ -7298,23 +7290,23 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="52"/>
-      <c r="B120" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C120" s="53" t="s">
+      <c r="A120" s="51"/>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" t="s">
         <v>38</v>
       </c>
-      <c r="D120" s="64">
+      <c r="D120" s="45">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E120" s="68">
+      <c r="E120" s="55">
         <v>0.95799999999999996</v>
       </c>
-      <c r="F120" s="64">
+      <c r="F120" s="45">
         <v>-0.12</v>
       </c>
-      <c r="G120" s="64">
+      <c r="G120" s="45">
         <v>0.27100000000000002</v>
       </c>
       <c r="H120" s="36" t="str">
@@ -7323,69 +7315,69 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="52"/>
+      <c r="A121" s="51"/>
       <c r="B121" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D121" s="65">
+      <c r="D121" s="46">
         <v>7.8E-2</v>
       </c>
-      <c r="E121" s="69"/>
-      <c r="F121" s="65">
+      <c r="E121" s="63"/>
+      <c r="F121" s="46">
         <v>-9.8000000000000004E-2</v>
       </c>
-      <c r="G121" s="65">
+      <c r="G121" s="46">
         <v>0.255</v>
       </c>
-      <c r="H121" s="54" t="str">
+      <c r="H121" s="42" t="str">
         <f t="shared" si="19"/>
         <v>[-0.098, 0.255]</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="52"/>
-      <c r="B122" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" s="50" t="s">
+      <c r="A122" s="51"/>
+      <c r="B122" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D122" s="61">
+      <c r="D122" s="43">
         <v>0.216</v>
       </c>
-      <c r="E122" s="73">
+      <c r="E122" s="53">
         <v>0.318</v>
       </c>
-      <c r="F122" s="61">
+      <c r="F122" s="43">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G122" s="61">
+      <c r="G122" s="43">
         <v>0.42399999999999999</v>
       </c>
-      <c r="H122" s="51" t="str">
+      <c r="H122" s="41" t="str">
         <f>CONCATENATE("[",F122, ", ", G122, "]")</f>
         <v>[0.009, 0.424]</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="52"/>
+      <c r="A123" s="51"/>
       <c r="B123" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="62">
+      <c r="D123" s="44">
         <v>0.14899999999999999</v>
       </c>
-      <c r="E123" s="71"/>
-      <c r="F123" s="62">
+      <c r="E123" s="54"/>
+      <c r="F123" s="44">
         <v>-9.0999999999999998E-2</v>
       </c>
-      <c r="G123" s="62">
+      <c r="G123" s="44">
         <v>0.38800000000000001</v>
       </c>
       <c r="H123" s="37" t="str">
@@ -7394,23 +7386,23 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="52"/>
-      <c r="B124" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C124" s="53" t="s">
+      <c r="A124" s="51"/>
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
         <v>30</v>
       </c>
-      <c r="D124" s="63">
+      <c r="D124" s="45">
         <v>-0.183</v>
       </c>
-      <c r="E124" s="66" t="s">
+      <c r="E124" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F124" s="63">
+      <c r="F124" s="45">
         <v>-0.502</v>
       </c>
-      <c r="G124" s="63">
+      <c r="G124" s="45">
         <v>0.13600000000000001</v>
       </c>
       <c r="H124" s="36" t="str">
@@ -7419,21 +7411,21 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="52"/>
+      <c r="A125" s="51"/>
       <c r="B125" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C125" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D125" s="62">
+      <c r="D125" s="44">
         <v>0.23100000000000001</v>
       </c>
-      <c r="E125" s="67"/>
-      <c r="F125" s="62">
+      <c r="E125" s="65"/>
+      <c r="F125" s="44">
         <v>2.4E-2</v>
       </c>
-      <c r="G125" s="62">
+      <c r="G125" s="44">
         <v>0.438</v>
       </c>
       <c r="H125" s="37" t="str">
@@ -7442,23 +7434,23 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="52"/>
-      <c r="B126" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C126" s="53" t="s">
+      <c r="A126" s="51"/>
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" t="s">
         <v>38</v>
       </c>
-      <c r="D126" s="64">
+      <c r="D126" s="45">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E126" s="66">
+      <c r="E126" s="58">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F126" s="64">
+      <c r="F126" s="45">
         <v>-0.154</v>
       </c>
-      <c r="G126" s="64">
+      <c r="G126" s="45">
         <v>0.29699999999999999</v>
       </c>
       <c r="H126" s="36" t="str">
@@ -7467,71 +7459,71 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="45"/>
+      <c r="A127" s="52"/>
       <c r="B127" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D127" s="65">
+      <c r="D127" s="46">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E127" s="72"/>
-      <c r="F127" s="65">
+      <c r="E127" s="59"/>
+      <c r="F127" s="46">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G127" s="65">
+      <c r="G127" s="46">
         <v>0.443</v>
       </c>
-      <c r="H127" s="54" t="str">
+      <c r="H127" s="42" t="str">
         <f t="shared" si="20"/>
         <v>[0.026, 0.443]</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="49" t="s">
+      <c r="A128" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B128" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" s="50" t="s">
+      <c r="B128" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D128" s="61">
+      <c r="D128" s="43">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E128" s="73">
+      <c r="E128" s="53">
         <v>0.65600000000000003</v>
       </c>
-      <c r="F128" s="61">
+      <c r="F128" s="43">
         <v>-0.123</v>
       </c>
-      <c r="G128" s="61">
+      <c r="G128" s="43">
         <v>0.20599999999999999</v>
       </c>
-      <c r="H128" s="51" t="str">
+      <c r="H128" s="41" t="str">
         <f>CONCATENATE("[",F128, ", ", G128, "]")</f>
         <v>[-0.123, 0.206]</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="52"/>
+      <c r="A129" s="51"/>
       <c r="B129" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D129" s="62">
+      <c r="D129" s="44">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="E129" s="71"/>
-      <c r="F129" s="62">
+      <c r="E129" s="54"/>
+      <c r="F129" s="44">
         <v>-0.39100000000000001</v>
       </c>
-      <c r="G129" s="62">
+      <c r="G129" s="44">
         <v>0.32700000000000001</v>
       </c>
       <c r="H129" s="37" t="str">
@@ -7540,23 +7532,23 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
-      <c r="B130" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" s="53" t="s">
+      <c r="A130" s="51"/>
+      <c r="B130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" t="s">
         <v>30</v>
       </c>
-      <c r="D130" s="63">
+      <c r="D130" s="45">
         <v>-0.20699999999999999</v>
       </c>
-      <c r="E130" s="66">
+      <c r="E130" s="58">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F130" s="63">
+      <c r="F130" s="45">
         <v>-0.44</v>
       </c>
-      <c r="G130" s="63">
+      <c r="G130" s="45">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="H130" s="36" t="str">
@@ -7565,21 +7557,21 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="52"/>
+      <c r="A131" s="51"/>
       <c r="B131" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C131" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D131" s="62">
+      <c r="D131" s="44">
         <v>6.3E-2</v>
       </c>
-      <c r="E131" s="67"/>
-      <c r="F131" s="62">
+      <c r="E131" s="65"/>
+      <c r="F131" s="44">
         <v>-0.104</v>
       </c>
-      <c r="G131" s="62">
+      <c r="G131" s="44">
         <v>0.23100000000000001</v>
       </c>
       <c r="H131" s="37" t="str">
@@ -7588,23 +7580,23 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="52"/>
-      <c r="B132" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="53" t="s">
+      <c r="A132" s="51"/>
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s">
         <v>38</v>
       </c>
-      <c r="D132" s="64">
+      <c r="D132" s="45">
         <v>-0.16300000000000001</v>
       </c>
-      <c r="E132" s="66" t="s">
+      <c r="E132" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F132" s="64">
+      <c r="F132" s="45">
         <v>-0.34699999999999998</v>
       </c>
-      <c r="G132" s="64">
+      <c r="G132" s="45">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H132" s="36" t="str">
@@ -7613,69 +7605,69 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="52"/>
+      <c r="A133" s="51"/>
       <c r="B133" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D133" s="65">
+      <c r="D133" s="46">
         <v>0.1</v>
       </c>
-      <c r="E133" s="72"/>
-      <c r="F133" s="65">
+      <c r="E133" s="59"/>
+      <c r="F133" s="46">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="G133" s="65">
+      <c r="G133" s="46">
         <v>0.26800000000000002</v>
       </c>
-      <c r="H133" s="54" t="str">
+      <c r="H133" s="42" t="str">
         <f t="shared" si="21"/>
         <v>[-0.067, 0.268]</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="52"/>
-      <c r="B134" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C134" s="50" t="s">
+      <c r="A134" s="51"/>
+      <c r="B134" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="61">
+      <c r="D134" s="43">
         <v>0.128</v>
       </c>
-      <c r="E134" s="73">
+      <c r="E134" s="53">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F134" s="61">
+      <c r="F134" s="43">
         <v>-1E-3</v>
       </c>
-      <c r="G134" s="61">
+      <c r="G134" s="43">
         <v>0.25600000000000001</v>
       </c>
-      <c r="H134" s="51" t="str">
+      <c r="H134" s="41" t="str">
         <f>CONCATENATE("[",F134, ", ", G134, "]")</f>
         <v>[-0.001, 0.256]</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="52"/>
+      <c r="A135" s="51"/>
       <c r="B135" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C135" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D135" s="62">
+      <c r="D135" s="44">
         <v>-2.4E-2</v>
       </c>
-      <c r="E135" s="71"/>
-      <c r="F135" s="62">
+      <c r="E135" s="54"/>
+      <c r="F135" s="44">
         <v>-0.26100000000000001</v>
       </c>
-      <c r="G135" s="62">
+      <c r="G135" s="44">
         <v>0.214</v>
       </c>
       <c r="H135" s="37" t="str">
@@ -7684,23 +7676,23 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="52"/>
-      <c r="B136" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C136" s="53" t="s">
+      <c r="A136" s="51"/>
+      <c r="B136" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" t="s">
         <v>30</v>
       </c>
-      <c r="D136" s="63">
+      <c r="D136" s="45">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="E136" s="66">
+      <c r="E136" s="58">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F136" s="63">
+      <c r="F136" s="45">
         <v>-0.27100000000000002</v>
       </c>
-      <c r="G136" s="63">
+      <c r="G136" s="45">
         <v>0.121</v>
       </c>
       <c r="H136" s="36" t="str">
@@ -7709,21 +7701,21 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="52"/>
+      <c r="A137" s="51"/>
       <c r="B137" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C137" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D137" s="62">
+      <c r="D137" s="44">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E137" s="67"/>
-      <c r="F137" s="62">
+      <c r="E137" s="65"/>
+      <c r="F137" s="44">
         <v>0.01</v>
       </c>
-      <c r="G137" s="62">
+      <c r="G137" s="44">
         <v>0.27200000000000002</v>
       </c>
       <c r="H137" s="37" t="str">
@@ -7732,23 +7724,23 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="52"/>
-      <c r="B138" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138" s="53" t="s">
+      <c r="A138" s="51"/>
+      <c r="B138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" t="s">
         <v>38</v>
       </c>
-      <c r="D138" s="64">
+      <c r="D138" s="45">
         <v>0.13600000000000001</v>
       </c>
-      <c r="E138" s="68">
+      <c r="E138" s="55">
         <v>0.72899999999999998</v>
       </c>
-      <c r="F138" s="64">
+      <c r="F138" s="45">
         <v>-1.9E-2</v>
       </c>
-      <c r="G138" s="64">
+      <c r="G138" s="45">
         <v>0.28999999999999998</v>
       </c>
       <c r="H138" s="36" t="str">
@@ -7757,69 +7749,69 @@
       </c>
     </row>
     <row r="139" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="52"/>
+      <c r="A139" s="51"/>
       <c r="B139" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D139" s="65">
+      <c r="D139" s="46">
         <v>0.11600000000000001</v>
       </c>
-      <c r="E139" s="69"/>
-      <c r="F139" s="65">
+      <c r="E139" s="63"/>
+      <c r="F139" s="46">
         <v>-1.6E-2</v>
       </c>
-      <c r="G139" s="65">
+      <c r="G139" s="46">
         <v>0.247</v>
       </c>
-      <c r="H139" s="54" t="str">
+      <c r="H139" s="42" t="str">
         <f t="shared" si="22"/>
         <v>[-0.016, 0.247]</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="52"/>
-      <c r="B140" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" s="50" t="s">
+      <c r="A140" s="51"/>
+      <c r="B140" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D140" s="61">
+      <c r="D140" s="43">
         <v>0.20599999999999999</v>
       </c>
-      <c r="E140" s="73">
+      <c r="E140" s="53">
         <v>0.27400000000000002</v>
       </c>
-      <c r="F140" s="61">
+      <c r="F140" s="43">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G140" s="61">
+      <c r="G140" s="43">
         <v>0.35499999999999998</v>
       </c>
-      <c r="H140" s="51" t="str">
+      <c r="H140" s="41" t="str">
         <f>CONCATENATE("[",F140, ", ", G140, "]")</f>
         <v>[0.057, 0.355]</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="52"/>
+      <c r="A141" s="51"/>
       <c r="B141" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C141" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="62">
+      <c r="D141" s="44">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E141" s="71"/>
-      <c r="F141" s="62">
+      <c r="E141" s="54"/>
+      <c r="F141" s="44">
         <v>-9.0999999999999998E-2</v>
       </c>
-      <c r="G141" s="62">
+      <c r="G141" s="44">
         <v>0.32900000000000001</v>
       </c>
       <c r="H141" s="37" t="str">
@@ -7828,23 +7820,23 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="52"/>
-      <c r="B142" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C142" s="53" t="s">
+      <c r="A142" s="51"/>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="63">
+      <c r="D142" s="45">
         <v>-0.17299999999999999</v>
       </c>
-      <c r="E142" s="66" t="s">
+      <c r="E142" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F142" s="63">
+      <c r="F142" s="45">
         <v>-0.39100000000000001</v>
       </c>
-      <c r="G142" s="63">
+      <c r="G142" s="45">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="H142" s="36" t="str">
@@ -7853,21 +7845,21 @@
       </c>
     </row>
     <row r="143" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="52"/>
+      <c r="A143" s="51"/>
       <c r="B143" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C143" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D143" s="62">
+      <c r="D143" s="44">
         <v>0.24099999999999999</v>
       </c>
-      <c r="E143" s="67"/>
-      <c r="F143" s="62">
+      <c r="E143" s="65"/>
+      <c r="F143" s="44">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G143" s="62">
+      <c r="G143" s="44">
         <v>0.39300000000000002</v>
       </c>
       <c r="H143" s="37" t="str">
@@ -7876,23 +7868,23 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="52"/>
-      <c r="B144" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C144" s="53" t="s">
+      <c r="A144" s="51"/>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
         <v>38</v>
       </c>
-      <c r="D144" s="64">
+      <c r="D144" s="45">
         <v>0.10100000000000001</v>
       </c>
-      <c r="E144" s="66">
+      <c r="E144" s="58">
         <v>2.4E-2</v>
       </c>
-      <c r="F144" s="64">
+      <c r="F144" s="45">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="G144" s="64">
+      <c r="G144" s="45">
         <v>0.27400000000000002</v>
       </c>
       <c r="H144" s="36" t="str">
@@ -7901,71 +7893,71 @@
       </c>
     </row>
     <row r="145" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="45"/>
+      <c r="A145" s="52"/>
       <c r="B145" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D145" s="65">
+      <c r="D145" s="46">
         <v>0.23300000000000001</v>
       </c>
-      <c r="E145" s="72"/>
-      <c r="F145" s="65">
+      <c r="E145" s="59"/>
+      <c r="F145" s="46">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="G145" s="65">
+      <c r="G145" s="46">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H145" s="54" t="str">
+      <c r="H145" s="42" t="str">
         <f t="shared" si="23"/>
         <v>[0.082, 0.384]</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="49" t="s">
+      <c r="A146" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B146" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C146" s="50" t="s">
+      <c r="B146" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="61">
+      <c r="D146" s="43">
         <v>0.14399999999999999</v>
       </c>
-      <c r="E146" s="73">
+      <c r="E146" s="53">
         <v>0.51700000000000002</v>
       </c>
-      <c r="F146" s="61">
+      <c r="F146" s="43">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G146" s="61">
+      <c r="G146" s="43">
         <v>0.254</v>
       </c>
-      <c r="H146" s="51" t="str">
+      <c r="H146" s="41" t="str">
         <f>CONCATENATE("[",F146, ", ", G146, "]")</f>
         <v>[0.035, 0.254]</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="52"/>
+      <c r="A147" s="51"/>
       <c r="B147" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C147" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D147" s="62">
+      <c r="D147" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E147" s="71"/>
-      <c r="F147" s="62">
+      <c r="E147" s="54"/>
+      <c r="F147" s="44">
         <v>-0.34499999999999997</v>
       </c>
-      <c r="G147" s="62">
+      <c r="G147" s="44">
         <v>0.39500000000000002</v>
       </c>
       <c r="H147" s="37" t="str">
@@ -7974,23 +7966,23 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="52"/>
-      <c r="B148" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148" s="53" t="s">
+      <c r="A148" s="51"/>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" t="s">
         <v>30</v>
       </c>
-      <c r="D148" s="63">
+      <c r="D148" s="45">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="E148" s="75">
+      <c r="E148" s="56">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F148" s="63">
+      <c r="F148" s="45">
         <v>-0.18099999999999999</v>
       </c>
-      <c r="G148" s="63">
+      <c r="G148" s="45">
         <v>0.16</v>
       </c>
       <c r="H148" s="36" t="str">
@@ -7999,21 +7991,21 @@
       </c>
     </row>
     <row r="149" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="52"/>
+      <c r="A149" s="51"/>
       <c r="B149" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C149" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D149" s="62">
+      <c r="D149" s="44">
         <v>0.155</v>
       </c>
-      <c r="E149" s="78"/>
-      <c r="F149" s="62">
+      <c r="E149" s="62"/>
+      <c r="F149" s="44">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G149" s="62">
+      <c r="G149" s="44">
         <v>0.26900000000000002</v>
       </c>
       <c r="H149" s="37" t="str">
@@ -8022,23 +8014,23 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="52"/>
-      <c r="B150" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C150" s="53" t="s">
+      <c r="A150" s="51"/>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" t="s">
         <v>38</v>
       </c>
-      <c r="D150" s="64">
+      <c r="D150" s="45">
         <v>-3.1E-2</v>
       </c>
-      <c r="E150" s="66" t="s">
+      <c r="E150" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F150" s="64">
+      <c r="F150" s="45">
         <v>-0.158</v>
       </c>
-      <c r="G150" s="64">
+      <c r="G150" s="45">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H150" s="36" t="str">
@@ -8047,69 +8039,69 @@
       </c>
     </row>
     <row r="151" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="52"/>
+      <c r="A151" s="51"/>
       <c r="B151" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D151" s="65">
+      <c r="D151" s="46">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E151" s="72"/>
-      <c r="F151" s="65">
+      <c r="E151" s="59"/>
+      <c r="F151" s="46">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G151" s="65">
+      <c r="G151" s="46">
         <v>0.311</v>
       </c>
-      <c r="H151" s="54" t="str">
+      <c r="H151" s="42" t="str">
         <f t="shared" si="24"/>
         <v>[0.079, 0.311]</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="52"/>
-      <c r="B152" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C152" s="50" t="s">
+      <c r="A152" s="51"/>
+      <c r="B152" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="61">
+      <c r="D152" s="43">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E152" s="73">
+      <c r="E152" s="53">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F152" s="61">
+      <c r="F152" s="43">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G152" s="61">
+      <c r="G152" s="43">
         <v>0.33300000000000002</v>
       </c>
-      <c r="H152" s="51" t="str">
+      <c r="H152" s="41" t="str">
         <f>CONCATENATE("[",F152, ", ", G152, "]")</f>
         <v>[0.026, 0.333]</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="52"/>
+      <c r="A153" s="51"/>
       <c r="B153" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C153" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D153" s="62">
+      <c r="D153" s="44">
         <v>1.2E-2</v>
       </c>
-      <c r="E153" s="71"/>
-      <c r="F153" s="62">
+      <c r="E153" s="54"/>
+      <c r="F153" s="44">
         <v>-0.251</v>
       </c>
-      <c r="G153" s="62">
+      <c r="G153" s="44">
         <v>0.27500000000000002</v>
       </c>
       <c r="H153" s="37" t="str">
@@ -8118,23 +8110,23 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="52"/>
-      <c r="B154" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C154" s="53" t="s">
+      <c r="A154" s="51"/>
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" t="s">
         <v>30</v>
       </c>
-      <c r="D154" s="63">
+      <c r="D154" s="45">
         <v>0.184</v>
       </c>
-      <c r="E154" s="68">
+      <c r="E154" s="55">
         <v>0.878</v>
       </c>
-      <c r="F154" s="63">
+      <c r="F154" s="45">
         <v>-3.9E-2</v>
       </c>
-      <c r="G154" s="63">
+      <c r="G154" s="45">
         <v>0.40699999999999997</v>
       </c>
       <c r="H154" s="36" t="str">
@@ -8143,21 +8135,21 @@
       </c>
     </row>
     <row r="155" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="52"/>
+      <c r="A155" s="51"/>
       <c r="B155" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C155" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D155" s="62">
+      <c r="D155" s="44">
         <v>0.17</v>
       </c>
-      <c r="E155" s="71"/>
-      <c r="F155" s="62">
+      <c r="E155" s="54"/>
+      <c r="F155" s="44">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G155" s="62">
+      <c r="G155" s="44">
         <v>0.32500000000000001</v>
       </c>
       <c r="H155" s="37" t="str">
@@ -8166,23 +8158,23 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="52"/>
-      <c r="B156" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C156" s="53" t="s">
+      <c r="A156" s="51"/>
+      <c r="B156" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" t="s">
         <v>38</v>
       </c>
-      <c r="D156" s="64">
+      <c r="D156" s="45">
         <v>0.16400000000000001</v>
       </c>
-      <c r="E156" s="68">
+      <c r="E156" s="55">
         <v>0.86599999999999999</v>
       </c>
-      <c r="F156" s="64">
+      <c r="F156" s="45">
         <v>-1.2E-2</v>
       </c>
-      <c r="G156" s="64">
+      <c r="G156" s="45">
         <v>0.33900000000000002</v>
       </c>
       <c r="H156" s="36" t="str">
@@ -8191,69 +8183,69 @@
       </c>
     </row>
     <row r="157" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="52"/>
+      <c r="A157" s="51"/>
       <c r="B157" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D157" s="65">
+      <c r="D157" s="46">
         <v>0.17299999999999999</v>
       </c>
-      <c r="E157" s="69"/>
-      <c r="F157" s="65">
+      <c r="E157" s="63"/>
+      <c r="F157" s="46">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G157" s="65">
+      <c r="G157" s="46">
         <v>0.32900000000000001</v>
       </c>
-      <c r="H157" s="54" t="str">
+      <c r="H157" s="42" t="str">
         <f t="shared" si="25"/>
         <v>[0.017, 0.329]</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="52"/>
-      <c r="B158" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C158" s="50" t="s">
+      <c r="A158" s="51"/>
+      <c r="B158" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D158" s="61">
+      <c r="D158" s="43">
         <v>0.251</v>
       </c>
-      <c r="E158" s="73">
+      <c r="E158" s="53">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F158" s="61">
+      <c r="F158" s="43">
         <v>0.13</v>
       </c>
-      <c r="G158" s="61">
+      <c r="G158" s="43">
         <v>0.372</v>
       </c>
-      <c r="H158" s="51" t="str">
+      <c r="H158" s="41" t="str">
         <f>CONCATENATE("[",F158, ", ", G158, "]")</f>
         <v>[0.13, 0.372]</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="52"/>
+      <c r="A159" s="51"/>
       <c r="B159" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C159" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D159" s="62">
+      <c r="D159" s="44">
         <v>0.13200000000000001</v>
       </c>
-      <c r="E159" s="71"/>
-      <c r="F159" s="62">
+      <c r="E159" s="54"/>
+      <c r="F159" s="44">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="G159" s="62">
+      <c r="G159" s="44">
         <v>0.34</v>
       </c>
       <c r="H159" s="37" t="str">
@@ -8262,23 +8254,23 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="52"/>
-      <c r="B160" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C160" s="53" t="s">
+      <c r="A160" s="51"/>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" t="s">
         <v>30</v>
       </c>
-      <c r="D160" s="63">
+      <c r="D160" s="45">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="E160" s="66" t="s">
+      <c r="E160" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F160" s="63">
+      <c r="F160" s="45">
         <v>-0.28599999999999998</v>
       </c>
-      <c r="G160" s="63">
+      <c r="G160" s="45">
         <v>0.13800000000000001</v>
       </c>
       <c r="H160" s="36" t="str">
@@ -8287,21 +8279,21 @@
       </c>
     </row>
     <row r="161" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="52"/>
+      <c r="A161" s="51"/>
       <c r="B161" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C161" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D161" s="62">
+      <c r="D161" s="44">
         <v>0.28100000000000003</v>
       </c>
-      <c r="E161" s="67"/>
-      <c r="F161" s="62">
+      <c r="E161" s="65"/>
+      <c r="F161" s="44">
         <v>0.159</v>
       </c>
-      <c r="G161" s="62">
+      <c r="G161" s="44">
         <v>0.40200000000000002</v>
       </c>
       <c r="H161" s="37" t="str">
@@ -8310,23 +8302,23 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="52"/>
-      <c r="B162" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" s="53" t="s">
+      <c r="A162" s="51"/>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" t="s">
         <v>38</v>
       </c>
-      <c r="D162" s="64">
+      <c r="D162" s="45">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E162" s="66">
+      <c r="E162" s="58">
         <v>1.2E-2</v>
       </c>
-      <c r="F162" s="64">
+      <c r="F162" s="45">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="G162" s="64">
+      <c r="G162" s="45">
         <v>0.27600000000000002</v>
       </c>
       <c r="H162" s="36" t="str">
@@ -8335,71 +8327,71 @@
       </c>
     </row>
     <row r="163" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="45"/>
+      <c r="A163" s="52"/>
       <c r="B163" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D163" s="65">
+      <c r="D163" s="46">
         <v>0.28199999999999997</v>
       </c>
-      <c r="E163" s="72"/>
-      <c r="F163" s="65">
+      <c r="E163" s="59"/>
+      <c r="F163" s="46">
         <v>0.156</v>
       </c>
-      <c r="G163" s="65">
+      <c r="G163" s="46">
         <v>0.40799999999999997</v>
       </c>
-      <c r="H163" s="54" t="str">
+      <c r="H163" s="42" t="str">
         <f t="shared" si="26"/>
         <v>[0.156, 0.408]</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="49" t="s">
+      <c r="A164" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B164" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C164" s="50" t="s">
+      <c r="B164" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="61">
+      <c r="D164" s="43">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E164" s="73">
+      <c r="E164" s="53">
         <v>0.16600000000000001</v>
       </c>
-      <c r="F164" s="61">
+      <c r="F164" s="43">
         <v>0</v>
       </c>
-      <c r="G164" s="61">
+      <c r="G164" s="43">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H164" s="51" t="str">
+      <c r="H164" s="41" t="str">
         <f>CONCATENATE("[",F164, ", ", G164, "]")</f>
         <v>[0, 0.008]</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="52"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C165" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D165" s="62">
+      <c r="D165" s="44">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="E165" s="71"/>
-      <c r="F165" s="62">
+      <c r="E165" s="54"/>
+      <c r="F165" s="44">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="G165" s="62">
+      <c r="G165" s="44">
         <v>1.9E-2</v>
       </c>
       <c r="H165" s="37" t="str">
@@ -8408,23 +8400,23 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="52"/>
-      <c r="B166" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C166" s="53" t="s">
+      <c r="A166" s="51"/>
+      <c r="B166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" t="s">
         <v>30</v>
       </c>
-      <c r="D166" s="63">
+      <c r="D166" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E166" s="68">
+      <c r="E166" s="55">
         <v>0.97599999999999998</v>
       </c>
-      <c r="F166" s="63">
+      <c r="F166" s="45">
         <v>-1.6E-2</v>
       </c>
-      <c r="G166" s="63">
+      <c r="G166" s="45">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H166" s="36" t="str">
@@ -8433,21 +8425,21 @@
       </c>
     </row>
     <row r="167" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="52"/>
+      <c r="A167" s="51"/>
       <c r="B167" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C167" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D167" s="62">
+      <c r="D167" s="44">
         <v>1E-3</v>
       </c>
-      <c r="E167" s="71"/>
-      <c r="F167" s="62">
+      <c r="E167" s="54"/>
+      <c r="F167" s="44">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="G167" s="62">
+      <c r="G167" s="44">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H167" s="37" t="str">
@@ -8456,23 +8448,23 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="52"/>
-      <c r="B168" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C168" s="53" t="s">
+      <c r="A168" s="51"/>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" t="s">
         <v>38</v>
       </c>
-      <c r="D168" s="64">
+      <c r="D168" s="45">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E168" s="68">
+      <c r="E168" s="55">
         <v>0.66600000000000004</v>
       </c>
-      <c r="F168" s="64">
+      <c r="F168" s="45">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="G168" s="64">
+      <c r="G168" s="45">
         <v>0.01</v>
       </c>
       <c r="H168" s="36" t="str">
@@ -8481,69 +8473,69 @@
       </c>
     </row>
     <row r="169" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="52"/>
+      <c r="A169" s="51"/>
       <c r="B169" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D169" s="65">
+      <c r="D169" s="46">
         <v>1E-3</v>
       </c>
-      <c r="E169" s="69"/>
-      <c r="F169" s="65">
+      <c r="E169" s="63"/>
+      <c r="F169" s="46">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="G169" s="65">
+      <c r="G169" s="46">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H169" s="54" t="str">
+      <c r="H169" s="42" t="str">
         <f t="shared" si="27"/>
         <v>[-0.005, 0.006]</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="52"/>
-      <c r="B170" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C170" s="50" t="s">
+      <c r="A170" s="51"/>
+      <c r="B170" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="61">
+      <c r="D170" s="43">
         <v>-1E-3</v>
       </c>
-      <c r="E170" s="73">
+      <c r="E170" s="53">
         <v>0.91200000000000003</v>
       </c>
-      <c r="F170" s="61">
+      <c r="F170" s="43">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="G170" s="61">
+      <c r="G170" s="43">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H170" s="51" t="str">
+      <c r="H170" s="41" t="str">
         <f>CONCATENATE("[",F170, ", ", G170, "]")</f>
         <v>[-0.004, 0.003]</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="52"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C171" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D171" s="62">
+      <c r="D171" s="44">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="E171" s="71"/>
-      <c r="F171" s="62">
+      <c r="E171" s="54"/>
+      <c r="F171" s="44">
         <v>-4.7E-2</v>
       </c>
-      <c r="G171" s="62">
+      <c r="G171" s="44">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="H171" s="37" t="str">
@@ -8552,23 +8544,23 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="52"/>
-      <c r="B172" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C172" s="53" t="s">
+      <c r="A172" s="51"/>
+      <c r="B172" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" t="s">
         <v>30</v>
       </c>
-      <c r="D172" s="63">
+      <c r="D172" s="45">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="E172" s="68">
+      <c r="E172" s="55">
         <v>0.59199999999999997</v>
       </c>
-      <c r="F172" s="63">
+      <c r="F172" s="45">
         <v>-1.6E-2</v>
       </c>
-      <c r="G172" s="63">
+      <c r="G172" s="45">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="H172" s="36" t="str">
@@ -8577,21 +8569,21 @@
       </c>
     </row>
     <row r="173" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="52"/>
+      <c r="A173" s="51"/>
       <c r="B173" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C173" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D173" s="62">
+      <c r="D173" s="44">
         <v>0</v>
       </c>
-      <c r="E173" s="71"/>
-      <c r="F173" s="62">
+      <c r="E173" s="54"/>
+      <c r="F173" s="44">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="G173" s="62">
+      <c r="G173" s="44">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H173" s="37" t="str">
@@ -8600,23 +8592,23 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="52"/>
-      <c r="B174" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C174" s="53" t="s">
+      <c r="A174" s="51"/>
+      <c r="B174" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174" t="s">
         <v>38</v>
       </c>
-      <c r="D174" s="64">
+      <c r="D174" s="45">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E174" s="75">
+      <c r="E174" s="56">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F174" s="64">
+      <c r="F174" s="45">
         <v>-2E-3</v>
       </c>
-      <c r="G174" s="64">
+      <c r="G174" s="45">
         <v>1.2E-2</v>
       </c>
       <c r="H174" s="36" t="str">
@@ -8625,69 +8617,69 @@
       </c>
     </row>
     <row r="175" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="52"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D175" s="65">
+      <c r="D175" s="46">
         <v>-2E-3</v>
       </c>
-      <c r="E175" s="76"/>
-      <c r="F175" s="65">
+      <c r="E175" s="57"/>
+      <c r="F175" s="46">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="G175" s="65">
+      <c r="G175" s="46">
         <v>2E-3</v>
       </c>
-      <c r="H175" s="54" t="str">
+      <c r="H175" s="42" t="str">
         <f t="shared" si="28"/>
         <v>[-0.007, 0.002]</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="52"/>
-      <c r="B176" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C176" s="50" t="s">
+      <c r="A176" s="51"/>
+      <c r="B176" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D176" s="61">
+      <c r="D176" s="43">
         <v>1.4E-2</v>
       </c>
-      <c r="E176" s="73">
+      <c r="E176" s="53">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F176" s="61">
+      <c r="F176" s="43">
         <v>0.01</v>
       </c>
-      <c r="G176" s="61">
+      <c r="G176" s="43">
         <v>1.9E-2</v>
       </c>
-      <c r="H176" s="51" t="str">
+      <c r="H176" s="41" t="str">
         <f>CONCATENATE("[",F176, ", ", G176, "]")</f>
         <v>[0.01, 0.019]</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="52"/>
+      <c r="A177" s="51"/>
       <c r="B177" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C177" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D177" s="62">
+      <c r="D177" s="44">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="E177" s="71"/>
-      <c r="F177" s="62">
+      <c r="E177" s="54"/>
+      <c r="F177" s="44">
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="G177" s="62">
+      <c r="G177" s="44">
         <v>2.4E-2</v>
       </c>
       <c r="H177" s="37" t="str">
@@ -8696,23 +8688,23 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="52"/>
-      <c r="B178" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C178" s="53" t="s">
+      <c r="A178" s="51"/>
+      <c r="B178" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" t="s">
         <v>30</v>
       </c>
-      <c r="D178" s="63">
+      <c r="D178" s="45">
         <v>2.4E-2</v>
       </c>
-      <c r="E178" s="68">
+      <c r="E178" s="55">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F178" s="63">
+      <c r="F178" s="45">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G178" s="63">
+      <c r="G178" s="45">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H178" s="36" t="str">
@@ -8721,21 +8713,21 @@
       </c>
     </row>
     <row r="179" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="52"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C179" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D179" s="62">
+      <c r="D179" s="44">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E179" s="71"/>
-      <c r="F179" s="62">
+      <c r="E179" s="54"/>
+      <c r="F179" s="44">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G179" s="62">
+      <c r="G179" s="44">
         <v>1.6E-2</v>
       </c>
       <c r="H179" s="37" t="str">
@@ -8744,23 +8736,23 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="52"/>
-      <c r="B180" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="53" t="s">
+      <c r="A180" s="51"/>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" t="s">
         <v>38</v>
       </c>
-      <c r="D180" s="64">
+      <c r="D180" s="45">
         <v>-2E-3</v>
       </c>
-      <c r="E180" s="66" t="s">
+      <c r="E180" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F180" s="64">
+      <c r="F180" s="45">
         <v>-0.01</v>
       </c>
-      <c r="G180" s="64">
+      <c r="G180" s="45">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H180" s="36" t="str">
@@ -8769,71 +8761,71 @@
       </c>
     </row>
     <row r="181" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="45"/>
+      <c r="A181" s="52"/>
       <c r="B181" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D181" s="65">
+      <c r="D181" s="46">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E181" s="72"/>
-      <c r="F181" s="65">
+      <c r="E181" s="59"/>
+      <c r="F181" s="46">
         <v>1.2E-2</v>
       </c>
-      <c r="G181" s="65">
+      <c r="G181" s="46">
         <v>2.4E-2</v>
       </c>
-      <c r="H181" s="54" t="str">
+      <c r="H181" s="42" t="str">
         <f t="shared" si="29"/>
         <v>[0.012, 0.024]</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="49" t="s">
+      <c r="A182" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B182" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C182" s="50" t="s">
+      <c r="B182" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C182" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D182" s="61">
+      <c r="D182" s="43">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E182" s="73">
+      <c r="E182" s="53">
         <v>0.79100000000000004</v>
       </c>
-      <c r="F182" s="61">
+      <c r="F182" s="43">
         <v>-0.17699999999999999</v>
       </c>
-      <c r="G182" s="61">
+      <c r="G182" s="43">
         <v>0.308</v>
       </c>
-      <c r="H182" s="51" t="str">
+      <c r="H182" s="41" t="str">
         <f>CONCATENATE("[",F182, ", ", G182, "]")</f>
         <v>[-0.177, 0.308]</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="52"/>
+      <c r="A183" s="51"/>
       <c r="B183" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C183" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D183" s="62">
+      <c r="D183" s="44">
         <v>0.10100000000000001</v>
       </c>
-      <c r="E183" s="71"/>
-      <c r="F183" s="62">
+      <c r="E183" s="54"/>
+      <c r="F183" s="44">
         <v>-0.25800000000000001</v>
       </c>
-      <c r="G183" s="62">
+      <c r="G183" s="44">
         <v>0.46100000000000002</v>
       </c>
       <c r="H183" s="37" t="str">
@@ -8842,23 +8834,23 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="52"/>
-      <c r="B184" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C184" s="53" t="s">
+      <c r="A184" s="51"/>
+      <c r="B184" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" t="s">
         <v>30</v>
       </c>
-      <c r="D184" s="63">
+      <c r="D184" s="45">
         <v>0.22700000000000001</v>
       </c>
-      <c r="E184" s="68">
+      <c r="E184" s="55">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F184" s="63">
+      <c r="F184" s="45">
         <v>-0.151</v>
       </c>
-      <c r="G184" s="63">
+      <c r="G184" s="45">
         <v>0.60499999999999998</v>
       </c>
       <c r="H184" s="36" t="str">
@@ -8867,21 +8859,21 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="52"/>
+      <c r="A185" s="51"/>
       <c r="B185" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C185" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D185" s="62">
+      <c r="D185" s="44">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E185" s="71"/>
-      <c r="F185" s="62">
+      <c r="E185" s="54"/>
+      <c r="F185" s="44">
         <v>-0.184</v>
       </c>
-      <c r="G185" s="62">
+      <c r="G185" s="44">
         <v>0.3</v>
       </c>
       <c r="H185" s="37" t="str">
@@ -8890,23 +8882,23 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="52"/>
-      <c r="B186" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C186" s="53" t="s">
+      <c r="A186" s="51"/>
+      <c r="B186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" t="s">
         <v>38</v>
       </c>
-      <c r="D186" s="64">
+      <c r="D186" s="45">
         <v>-0.11799999999999999</v>
       </c>
-      <c r="E186" s="66" t="s">
+      <c r="E186" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F186" s="64">
+      <c r="F186" s="45">
         <v>-0.379</v>
       </c>
-      <c r="G186" s="64">
+      <c r="G186" s="45">
         <v>0.14399999999999999</v>
       </c>
       <c r="H186" s="36" t="str">
@@ -8915,69 +8907,69 @@
       </c>
     </row>
     <row r="187" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="52"/>
+      <c r="A187" s="51"/>
       <c r="B187" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D187" s="65">
+      <c r="D187" s="46">
         <v>0.105</v>
       </c>
-      <c r="E187" s="72"/>
-      <c r="F187" s="65">
+      <c r="E187" s="59"/>
+      <c r="F187" s="46">
         <v>-0.13800000000000001</v>
       </c>
-      <c r="G187" s="65">
+      <c r="G187" s="46">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H187" s="54" t="str">
+      <c r="H187" s="42" t="str">
         <f t="shared" si="30"/>
         <v>[-0.138, 0.348]</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="52"/>
-      <c r="B188" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C188" s="50" t="s">
+      <c r="A188" s="51"/>
+      <c r="B188" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D188" s="61">
+      <c r="D188" s="43">
         <v>0.159</v>
       </c>
-      <c r="E188" s="79">
+      <c r="E188" s="61">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F188" s="61">
+      <c r="F188" s="43">
         <v>-0.105</v>
       </c>
-      <c r="G188" s="61">
+      <c r="G188" s="43">
         <v>0.42299999999999999</v>
       </c>
-      <c r="H188" s="51" t="str">
+      <c r="H188" s="41" t="str">
         <f>CONCATENATE("[",F188, ", ", G188, "]")</f>
         <v>[-0.105, 0.423]</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="52"/>
+      <c r="A189" s="51"/>
       <c r="B189" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C189" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D189" s="62">
+      <c r="D189" s="44">
         <v>-0.04</v>
       </c>
-      <c r="E189" s="78"/>
-      <c r="F189" s="62">
+      <c r="E189" s="62"/>
+      <c r="F189" s="44">
         <v>-0.373</v>
       </c>
-      <c r="G189" s="62">
+      <c r="G189" s="44">
         <v>0.29299999999999998</v>
       </c>
       <c r="H189" s="37" t="str">
@@ -8986,23 +8978,23 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="52"/>
-      <c r="B190" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C190" s="53" t="s">
+      <c r="A190" s="51"/>
+      <c r="B190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" t="s">
         <v>30</v>
       </c>
-      <c r="D190" s="63">
+      <c r="D190" s="45">
         <v>0.28299999999999997</v>
       </c>
-      <c r="E190" s="68">
+      <c r="E190" s="55">
         <v>0.29799999999999999</v>
       </c>
-      <c r="F190" s="63">
+      <c r="F190" s="45">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="G190" s="63">
+      <c r="G190" s="45">
         <v>0.65200000000000002</v>
       </c>
       <c r="H190" s="36" t="str">
@@ -9011,21 +9003,21 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="52"/>
+      <c r="A191" s="51"/>
       <c r="B191" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C191" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D191" s="62">
+      <c r="D191" s="44">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E191" s="71"/>
-      <c r="F191" s="62">
+      <c r="E191" s="54"/>
+      <c r="F191" s="44">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="G191" s="62">
+      <c r="G191" s="44">
         <v>0.40899999999999997</v>
       </c>
       <c r="H191" s="37" t="str">
@@ -9034,23 +9026,23 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="52"/>
-      <c r="B192" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C192" s="53" t="s">
+      <c r="A192" s="51"/>
+      <c r="B192" t="s">
+        <v>21</v>
+      </c>
+      <c r="C192" t="s">
         <v>38</v>
       </c>
-      <c r="D192" s="64">
+      <c r="D192" s="45">
         <v>0.127</v>
       </c>
-      <c r="E192" s="68">
+      <c r="E192" s="55">
         <v>0.57499999999999996</v>
       </c>
-      <c r="F192" s="64">
+      <c r="F192" s="45">
         <v>-0.151</v>
       </c>
-      <c r="G192" s="64">
+      <c r="G192" s="45">
         <v>0.40500000000000003</v>
       </c>
       <c r="H192" s="36" t="str">
@@ -9059,69 +9051,69 @@
       </c>
     </row>
     <row r="193" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="52"/>
+      <c r="A193" s="51"/>
       <c r="B193" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D193" s="65">
+      <c r="D193" s="46">
         <v>0.157</v>
       </c>
-      <c r="E193" s="69"/>
-      <c r="F193" s="65">
+      <c r="E193" s="63"/>
+      <c r="F193" s="46">
         <v>-0.107</v>
       </c>
-      <c r="G193" s="65">
+      <c r="G193" s="46">
         <v>0.42199999999999999</v>
       </c>
-      <c r="H193" s="54" t="str">
+      <c r="H193" s="42" t="str">
         <f t="shared" si="31"/>
         <v>[-0.107, 0.422]</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="52"/>
-      <c r="B194" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C194" s="50" t="s">
+      <c r="A194" s="51"/>
+      <c r="B194" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D194" s="61">
+      <c r="D194" s="43">
         <v>0.121</v>
       </c>
-      <c r="E194" s="70">
+      <c r="E194" s="64">
         <v>0.04</v>
       </c>
-      <c r="F194" s="61">
+      <c r="F194" s="43">
         <v>-0.253</v>
       </c>
-      <c r="G194" s="61">
+      <c r="G194" s="43">
         <v>0.49399999999999999</v>
       </c>
-      <c r="H194" s="51" t="str">
+      <c r="H194" s="41" t="str">
         <f>CONCATENATE("[",F194, ", ", G194, "]")</f>
         <v>[-0.253, 0.494]</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="52"/>
+      <c r="A195" s="51"/>
       <c r="B195" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C195" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D195" s="62">
+      <c r="D195" s="44">
         <v>0.27800000000000002</v>
       </c>
-      <c r="E195" s="67"/>
-      <c r="F195" s="62">
+      <c r="E195" s="65"/>
+      <c r="F195" s="44">
         <v>-0.124</v>
       </c>
-      <c r="G195" s="62">
+      <c r="G195" s="44">
         <v>0.68</v>
       </c>
       <c r="H195" s="37" t="str">
@@ -9130,23 +9122,23 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="52"/>
-      <c r="B196" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C196" s="53" t="s">
+      <c r="A196" s="51"/>
+      <c r="B196" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" t="s">
         <v>30</v>
       </c>
-      <c r="D196" s="63">
+      <c r="D196" s="45">
         <v>0.106</v>
       </c>
-      <c r="E196" s="68">
+      <c r="E196" s="55">
         <v>0.88200000000000001</v>
       </c>
-      <c r="F196" s="63">
+      <c r="F196" s="45">
         <v>-0.35399999999999998</v>
       </c>
-      <c r="G196" s="63">
+      <c r="G196" s="45">
         <v>0.56699999999999995</v>
       </c>
       <c r="H196" s="36" t="str">
@@ -9155,21 +9147,21 @@
       </c>
     </row>
     <row r="197" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="52"/>
+      <c r="A197" s="51"/>
       <c r="B197" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C197" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D197" s="62">
+      <c r="D197" s="44">
         <v>0.127</v>
       </c>
-      <c r="E197" s="71"/>
-      <c r="F197" s="62">
+      <c r="E197" s="54"/>
+      <c r="F197" s="44">
         <v>-0.246</v>
       </c>
-      <c r="G197" s="62">
+      <c r="G197" s="44">
         <v>0.5</v>
       </c>
       <c r="H197" s="37" t="str">
@@ -9178,23 +9170,23 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="52"/>
-      <c r="B198" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C198" s="53" t="s">
+      <c r="A198" s="51"/>
+      <c r="B198" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198" t="s">
         <v>38</v>
       </c>
-      <c r="D198" s="64">
+      <c r="D198" s="45">
         <v>0.184</v>
       </c>
-      <c r="E198" s="68">
+      <c r="E198" s="55">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F198" s="64">
+      <c r="F198" s="45">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="G198" s="64">
+      <c r="G198" s="45">
         <v>0.56999999999999995</v>
       </c>
       <c r="H198" s="36" t="str">
@@ -9203,590 +9195,955 @@
       </c>
     </row>
     <row r="199" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="45"/>
+      <c r="A199" s="52"/>
       <c r="B199" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D199" s="65">
+      <c r="D199" s="46">
         <v>0.114</v>
       </c>
-      <c r="E199" s="69"/>
-      <c r="F199" s="65">
+      <c r="E199" s="63"/>
+      <c r="F199" s="46">
         <v>-0.26</v>
       </c>
-      <c r="G199" s="65">
+      <c r="G199" s="46">
         <v>0.48799999999999999</v>
       </c>
-      <c r="H199" s="54" t="str">
+      <c r="H199" s="42" t="str">
         <f t="shared" si="32"/>
         <v>[-0.26, 0.488]</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="49" t="s">
+      <c r="A200" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B200" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C200" s="50" t="s">
+      <c r="B200" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D200" s="61"/>
-      <c r="E200" s="70">
+      <c r="D200" s="43">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E200" s="64">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F200" s="61"/>
-      <c r="G200" s="61"/>
-      <c r="H200" s="51" t="str">
+      <c r="F200" s="43">
+        <v>-0.126</v>
+      </c>
+      <c r="G200" s="43">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="H200" s="41" t="str">
         <f>CONCATENATE("[",F200, ", ", G200, "]")</f>
-        <v>[, ]</v>
+        <v>[-0.126, 0.464]</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="52"/>
+      <c r="A201" s="51"/>
       <c r="B201" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C201" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D201" s="62"/>
-      <c r="E201" s="67"/>
-      <c r="F201" s="62"/>
-      <c r="G201" s="62"/>
+      <c r="D201" s="44">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E201" s="65"/>
+      <c r="F201" s="44">
+        <v>-0.43</v>
+      </c>
+      <c r="G201" s="44">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="H201" s="37" t="str">
         <f t="shared" ref="H201:H205" si="33">CONCATENATE("[",F201, ", ", G201, "]")</f>
-        <v>[, ]</v>
+        <v>[-0.43, 0.29]</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="52"/>
-      <c r="B202" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C202" s="53" t="s">
+      <c r="A202" s="51"/>
+      <c r="B202" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" t="s">
         <v>30</v>
       </c>
-      <c r="D202" s="63"/>
-      <c r="E202" s="66" t="s">
+      <c r="D202" s="45">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="E202" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F202" s="63"/>
-      <c r="G202" s="63"/>
+      <c r="F202" s="45">
+        <v>-0.86</v>
+      </c>
+      <c r="G202" s="45">
+        <v>-9.0999999999999998E-2</v>
+      </c>
       <c r="H202" s="36" t="str">
         <f t="shared" si="33"/>
-        <v>[, ]</v>
+        <v>[-0.86, -0.091]</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="52"/>
+      <c r="A203" s="51"/>
       <c r="B203" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C203" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D203" s="62"/>
-      <c r="E203" s="67"/>
-      <c r="F203" s="62"/>
-      <c r="G203" s="62"/>
+      <c r="D203" s="44">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E203" s="65"/>
+      <c r="F203" s="44">
+        <v>-0.1</v>
+      </c>
+      <c r="G203" s="44">
+        <v>0.49</v>
+      </c>
       <c r="H203" s="37" t="str">
         <f t="shared" si="33"/>
-        <v>[, ]</v>
+        <v>[-0.1, 0.49]</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="52"/>
-      <c r="B204" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C204" s="53" t="s">
+      <c r="A204" s="51"/>
+      <c r="B204" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" t="s">
         <v>38</v>
       </c>
-      <c r="D204" s="64"/>
-      <c r="E204" s="66">
+      <c r="D204" s="45">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E204" s="58">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F204" s="64"/>
-      <c r="G204" s="64"/>
+      <c r="F204" s="45">
+        <v>-0.318</v>
+      </c>
+      <c r="G204" s="45">
+        <v>0.34</v>
+      </c>
       <c r="H204" s="36" t="str">
         <f t="shared" si="33"/>
-        <v>[, ]</v>
+        <v>[-0.318, 0.34]</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="52"/>
+      <c r="A205" s="51"/>
       <c r="B205" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D205" s="65"/>
-      <c r="E205" s="72"/>
-      <c r="F205" s="65"/>
-      <c r="G205" s="65"/>
-      <c r="H205" s="54" t="str">
+      <c r="D205" s="46">
+        <v>0.191</v>
+      </c>
+      <c r="E205" s="59"/>
+      <c r="F205" s="46">
+        <v>-0.105</v>
+      </c>
+      <c r="G205" s="46">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="H205" s="42" t="str">
         <f t="shared" si="33"/>
-        <v>[, ]</v>
+        <v>[-0.105, 0.487]</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="52"/>
-      <c r="B206" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C206" s="50" t="s">
+      <c r="A206" s="51"/>
+      <c r="B206" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C206" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D206" s="61"/>
-      <c r="E206" s="73">
+      <c r="D206" s="43">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="E206" s="53">
         <v>0.70599999999999996</v>
       </c>
-      <c r="F206" s="61"/>
-      <c r="G206" s="61"/>
-      <c r="H206" s="51" t="str">
+      <c r="F206" s="43">
+        <v>-0.57899999999999996</v>
+      </c>
+      <c r="G206" s="43">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H206" s="41" t="str">
         <f>CONCATENATE("[",F206, ", ", G206, "]")</f>
-        <v>[, ]</v>
+        <v>[-0.579, 0.242]</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="52"/>
+      <c r="A207" s="51"/>
       <c r="B207" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C207" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D207" s="62"/>
-      <c r="E207" s="71"/>
-      <c r="F207" s="62"/>
-      <c r="G207" s="62"/>
+      <c r="D207" s="44">
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="E207" s="54"/>
+      <c r="F207" s="44">
+        <v>-0.72899999999999998</v>
+      </c>
+      <c r="G207" s="44">
+        <v>0.27800000000000002</v>
+      </c>
       <c r="H207" s="37" t="str">
         <f t="shared" ref="H207:H211" si="34">CONCATENATE("[",F207, ", ", G207, "]")</f>
-        <v>[, ]</v>
+        <v>[-0.729, 0.278]</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="52"/>
-      <c r="B208" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C208" s="53" t="s">
+      <c r="A208" s="51"/>
+      <c r="B208" t="s">
+        <v>21</v>
+      </c>
+      <c r="C208" t="s">
         <v>30</v>
       </c>
-      <c r="D208" s="63"/>
-      <c r="E208" s="68">
+      <c r="D208" s="45">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E208" s="55">
         <v>0.153</v>
       </c>
-      <c r="F208" s="63"/>
-      <c r="G208" s="63"/>
+      <c r="F208" s="45">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="G208" s="45">
+        <v>0.55900000000000005</v>
+      </c>
       <c r="H208" s="36" t="str">
         <f t="shared" si="34"/>
-        <v>[, ]</v>
+        <v>[-0.466, 0.559]</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="52"/>
+      <c r="A209" s="51"/>
       <c r="B209" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C209" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D209" s="62"/>
-      <c r="E209" s="71"/>
-      <c r="F209" s="62"/>
-      <c r="G209" s="62"/>
+      <c r="D209" s="44">
+        <v>-0.182</v>
+      </c>
+      <c r="E209" s="54"/>
+      <c r="F209" s="44">
+        <v>-0.59299999999999997</v>
+      </c>
+      <c r="G209" s="44">
+        <v>0.22800000000000001</v>
+      </c>
       <c r="H209" s="37" t="str">
         <f t="shared" si="34"/>
-        <v>[, ]</v>
+        <v>[-0.593, 0.228]</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="52"/>
-      <c r="B210" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C210" s="53" t="s">
+      <c r="A210" s="51"/>
+      <c r="B210" t="s">
+        <v>21</v>
+      </c>
+      <c r="C210" t="s">
         <v>38</v>
       </c>
-      <c r="D210" s="64"/>
-      <c r="E210" s="66" t="s">
+      <c r="D210" s="45">
+        <v>-0.64</v>
+      </c>
+      <c r="E210" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F210" s="64"/>
-      <c r="G210" s="64"/>
+      <c r="F210" s="45">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="G210" s="45">
+        <v>-0.193</v>
+      </c>
       <c r="H210" s="36" t="str">
         <f t="shared" si="34"/>
-        <v>[, ]</v>
+        <v>[-1.086, -0.193]</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="52"/>
+      <c r="A211" s="51"/>
       <c r="B211" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D211" s="65"/>
-      <c r="E211" s="72"/>
-      <c r="F211" s="65"/>
-      <c r="G211" s="65"/>
-      <c r="H211" s="54" t="str">
+      <c r="D211" s="46">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="E211" s="59"/>
+      <c r="F211" s="46">
+        <v>-0.48699999999999999</v>
+      </c>
+      <c r="G211" s="46">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="H211" s="42" t="str">
         <f t="shared" si="34"/>
-        <v>[, ]</v>
+        <v>[-0.487, 0.337]</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="52"/>
-      <c r="B212" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C212" s="50" t="s">
+      <c r="A212" s="51"/>
+      <c r="B212" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C212" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D212" s="61"/>
-      <c r="E212" s="70">
+      <c r="D212" s="43">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="E212" s="64">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F212" s="61"/>
-      <c r="G212" s="61"/>
-      <c r="H212" s="51" t="str">
+      <c r="F212" s="43">
+        <v>-0.44600000000000001</v>
+      </c>
+      <c r="G212" s="43">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="H212" s="41" t="str">
         <f>CONCATENATE("[",F212, ", ", G212, "]")</f>
-        <v>[, ]</v>
+        <v>[-0.446, 0.271]</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="52"/>
+      <c r="A213" s="51"/>
       <c r="B213" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C213" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D213" s="62"/>
-      <c r="E213" s="67"/>
-      <c r="F213" s="62"/>
-      <c r="G213" s="62"/>
+      <c r="D213" s="44">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E213" s="65"/>
+      <c r="F213" s="44">
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="G213" s="44">
+        <v>0.76300000000000001</v>
+      </c>
       <c r="H213" s="37" t="str">
         <f t="shared" ref="H213:H217" si="35">CONCATENATE("[",F213, ", ", G213, "]")</f>
-        <v>[, ]</v>
+        <v>[-0.212, 0.763]</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="52"/>
-      <c r="B214" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C214" s="53" t="s">
+      <c r="A214" s="51"/>
+      <c r="B214" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" t="s">
         <v>30</v>
       </c>
-      <c r="D214" s="63"/>
-      <c r="E214" s="66" t="s">
+      <c r="D214" s="45">
+        <v>-0.749</v>
+      </c>
+      <c r="E214" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F214" s="63"/>
-      <c r="G214" s="63"/>
+      <c r="F214" s="45">
+        <v>-1.2190000000000001</v>
+      </c>
+      <c r="G214" s="45">
+        <v>-0.27800000000000002</v>
+      </c>
       <c r="H214" s="36" t="str">
         <f t="shared" si="35"/>
-        <v>[, ]</v>
+        <v>[-1.219, -0.278]</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="52"/>
+      <c r="A215" s="51"/>
       <c r="B215" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C215" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D215" s="62"/>
-      <c r="E215" s="67"/>
-      <c r="F215" s="62"/>
-      <c r="G215" s="62"/>
+      <c r="D215" s="44">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="E215" s="65"/>
+      <c r="F215" s="44">
+        <v>-0.39700000000000002</v>
+      </c>
+      <c r="G215" s="44">
+        <v>0.32</v>
+      </c>
       <c r="H215" s="37" t="str">
         <f t="shared" si="35"/>
-        <v>[, ]</v>
+        <v>[-0.397, 0.32]</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="52"/>
-      <c r="B216" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C216" s="53" t="s">
+      <c r="A216" s="51"/>
+      <c r="B216" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" t="s">
         <v>38</v>
       </c>
-      <c r="D216" s="64"/>
-      <c r="E216" s="68">
+      <c r="D216" s="45">
+        <v>-0.13800000000000001</v>
+      </c>
+      <c r="E216" s="55">
         <v>0.42699999999999999</v>
       </c>
-      <c r="F216" s="64"/>
-      <c r="G216" s="64"/>
+      <c r="F216" s="45">
+        <v>-0.53200000000000003</v>
+      </c>
+      <c r="G216" s="45">
+        <v>0.25600000000000001</v>
+      </c>
       <c r="H216" s="36" t="str">
         <f t="shared" si="35"/>
-        <v>[, ]</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="45"/>
+        <v>[-0.532, 0.256]</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="52"/>
       <c r="B217" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D217" s="65"/>
-      <c r="E217" s="69"/>
-      <c r="F217" s="65"/>
-      <c r="G217" s="65"/>
-      <c r="H217" s="54" t="str">
+      <c r="D217" s="46">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="E217" s="63"/>
+      <c r="F217" s="46">
+        <v>-0.42199999999999999</v>
+      </c>
+      <c r="G217" s="46">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H217" s="42" t="str">
         <f t="shared" si="35"/>
-        <v>[, ]</v>
+        <v>[-0.422, 0.298]</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E218" s="74"/>
-      <c r="F218" s="77"/>
-      <c r="G218" s="77"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E219" s="74"/>
-      <c r="F219" s="77"/>
-      <c r="G219" s="77"/>
+      <c r="A218" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B218" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" s="43">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="E218" s="53">
+        <v>0.753</v>
+      </c>
+      <c r="F218" s="43">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G218" s="43">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="H218" s="41" t="str">
+        <f>CONCATENATE("[",F218, ", ", G218, "]")</f>
+        <v>[0.089, 0.733]</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="51"/>
+      <c r="B219" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C219" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D219" s="44">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E219" s="54"/>
+      <c r="F219" s="44">
+        <v>-0.46400000000000002</v>
+      </c>
+      <c r="G219" s="44">
+        <v>1.026</v>
+      </c>
+      <c r="H219" s="37" t="str">
+        <f t="shared" ref="H219:H223" si="36">CONCATENATE("[",F219, ", ", G219, "]")</f>
+        <v>[-0.464, 1.026]</v>
+      </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E220" s="74"/>
-      <c r="F220" s="77"/>
-      <c r="G220" s="77"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E221" s="74"/>
-      <c r="F221" s="77"/>
-      <c r="G221" s="77"/>
+      <c r="A220" s="51"/>
+      <c r="B220" t="s">
+        <v>20</v>
+      </c>
+      <c r="C220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D220" s="45">
+        <v>-0.55500000000000005</v>
+      </c>
+      <c r="E220" s="58">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F220" s="45">
+        <v>-1.3680000000000001</v>
+      </c>
+      <c r="G220" s="45">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H220" s="36" t="str">
+        <f t="shared" si="36"/>
+        <v>[-1.368, 0.257]</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="51"/>
+      <c r="B221" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C221" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D221" s="44">
+        <v>0.47</v>
+      </c>
+      <c r="E221" s="65"/>
+      <c r="F221" s="44">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G221" s="44">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H221" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>[0.174, 0.766]</v>
+      </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E222" s="74"/>
-      <c r="F222" s="77"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E223" s="74"/>
-      <c r="F223" s="77"/>
+      <c r="A222" s="51"/>
+      <c r="B222" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" t="s">
+        <v>38</v>
+      </c>
+      <c r="D222" s="45">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E222" s="55">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F222" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="G222" s="45">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="H222" s="36" t="str">
+        <f t="shared" si="36"/>
+        <v>[0.1, 0.851]</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="51"/>
+      <c r="B223" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D223" s="46">
+        <v>0.38</v>
+      </c>
+      <c r="E223" s="63"/>
+      <c r="F223" s="46">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G223" s="46">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="H223" s="42" t="str">
+        <f t="shared" si="36"/>
+        <v>[0.077, 0.683]</v>
+      </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E224" s="74"/>
-      <c r="F224" s="77"/>
-    </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E225" s="74"/>
-      <c r="F225" s="77"/>
-    </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E226" s="74"/>
-      <c r="F226" s="77"/>
-    </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E227" s="74"/>
-      <c r="F227" s="77"/>
-    </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E228" s="74"/>
-    </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E229" s="74"/>
-    </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E230" s="74"/>
-    </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E231" s="74"/>
-    </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E232" s="74"/>
-    </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E233" s="74"/>
-    </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E234" s="74"/>
-    </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E235" s="74"/>
-    </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E236" s="74"/>
-    </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E237" s="74"/>
-    </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E238" s="74"/>
-    </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E239" s="74"/>
-    </row>
-    <row r="240" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E240" s="74"/>
-    </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E241" s="74"/>
-    </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E242" s="74"/>
-    </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E243" s="74"/>
-    </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E244" s="74"/>
-    </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E245" s="74"/>
-    </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E246" s="74"/>
-    </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E247" s="74"/>
-    </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E248" s="74"/>
-    </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E249" s="74"/>
-    </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E250" s="74"/>
-    </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E251" s="74"/>
-    </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E252" s="74"/>
-    </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E253" s="74"/>
-    </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E254" s="74"/>
-    </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E255" s="74"/>
-    </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E256" s="74"/>
-    </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E257" s="74"/>
-    </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E258" s="74"/>
-    </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E259" s="74"/>
-    </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E260" s="74"/>
-    </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E261" s="74"/>
-    </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E262" s="74"/>
-    </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E263" s="74"/>
-    </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E264" s="74"/>
-    </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E265" s="19"/>
-    </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E266" s="19"/>
-    </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E267" s="19"/>
-    </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E268" s="19"/>
-    </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E269" s="19"/>
-    </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E270" s="19"/>
-    </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E271" s="19"/>
-    </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E272" s="19"/>
-    </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E273" s="19"/>
-    </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E274" s="19"/>
+      <c r="A224" s="51"/>
+      <c r="B224" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="E224" s="53">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F224" s="43">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="G224" s="43">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="H224" s="41" t="str">
+        <f>CONCATENATE("[",F224, ", ", G224, "]")</f>
+        <v>[-0.077, 0.477]</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="51"/>
+      <c r="B225" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C225" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D225" s="44">
+        <v>0.19</v>
+      </c>
+      <c r="E225" s="54"/>
+      <c r="F225" s="44">
+        <v>-0.45500000000000002</v>
+      </c>
+      <c r="G225" s="44">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="H225" s="37" t="str">
+        <f t="shared" ref="H225:H229" si="37">CONCATENATE("[",F225, ", ", G225, "]")</f>
+        <v>[-0.455, 0.834]</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="51"/>
+      <c r="B226" t="s">
+        <v>21</v>
+      </c>
+      <c r="C226" t="s">
+        <v>30</v>
+      </c>
+      <c r="D226" s="45">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E226" s="58">
+        <v>2E-3</v>
+      </c>
+      <c r="F226" s="45">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="G226" s="45">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="H226" s="36" t="str">
+        <f t="shared" si="37"/>
+        <v>[0.341, 1.301]</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="51"/>
+      <c r="B227" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C227" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D227" s="44">
+        <v>0.151</v>
+      </c>
+      <c r="E227" s="65"/>
+      <c r="F227" s="44">
+        <v>-0.106</v>
+      </c>
+      <c r="G227" s="44">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="H227" s="37" t="str">
+        <f t="shared" si="37"/>
+        <v>[-0.106, 0.408]</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="51"/>
+      <c r="B228" t="s">
+        <v>21</v>
+      </c>
+      <c r="C228" t="s">
+        <v>38</v>
+      </c>
+      <c r="D228" s="45">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E228" s="55">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F228" s="45">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="G228" s="45">
+        <v>0.433</v>
+      </c>
+      <c r="H228" s="36" t="str">
+        <f t="shared" si="37"/>
+        <v>[-0.238, 0.433]</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="51"/>
+      <c r="B229" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D229" s="46">
+        <v>0.221</v>
+      </c>
+      <c r="E229" s="63"/>
+      <c r="F229" s="46">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="G229" s="46">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H229" s="42" t="str">
+        <f t="shared" si="37"/>
+        <v>[-0.039, 0.481]</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="51"/>
+      <c r="B230" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" s="43">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E230" s="53">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="F230" s="43">
+        <v>0.184</v>
+      </c>
+      <c r="G230" s="43">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="H230" s="41" t="str">
+        <f>CONCATENATE("[",F230, ", ", G230, "]")</f>
+        <v>[0.184, 1.021]</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="51"/>
+      <c r="B231" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D231" s="44">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="E231" s="54"/>
+      <c r="F231" s="44">
+        <v>-0.38900000000000001</v>
+      </c>
+      <c r="G231" s="44">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="H231" s="37" t="str">
+        <f t="shared" ref="H231:H235" si="38">CONCATENATE("[",F231, ", ", G231, "]")</f>
+        <v>[-0.389, 1.511]</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="51"/>
+      <c r="B232" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" s="45">
+        <v>-0.38900000000000001</v>
+      </c>
+      <c r="E232" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F232" s="45">
+        <v>-1.022</v>
+      </c>
+      <c r="G232" s="45">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H232" s="36" t="str">
+        <f t="shared" si="38"/>
+        <v>[-1.022, 0.243]</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="51"/>
+      <c r="B233" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D233" s="44">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E233" s="65"/>
+      <c r="F233" s="44">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G233" s="44">
+        <v>1.06</v>
+      </c>
+      <c r="H233" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>[0.287, 1.06]</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="51"/>
+      <c r="B234" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" t="s">
+        <v>38</v>
+      </c>
+      <c r="D234" s="45">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E234" s="55">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F234" s="45">
+        <v>0.246</v>
+      </c>
+      <c r="G234" s="45">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="H234" s="36" t="str">
+        <f t="shared" si="38"/>
+        <v>[0.246, 1.148]</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="52"/>
+      <c r="B235" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D235" s="46">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E235" s="63"/>
+      <c r="F235" s="46">
+        <v>0.186</v>
+      </c>
+      <c r="G235" s="46">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H235" s="42" t="str">
+        <f t="shared" si="38"/>
+        <v>[0.186, 0.966]</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="120">
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="A182:A199"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A128:A145"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A91"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="A20:A37"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
+  <mergeCells count="130">
+    <mergeCell ref="A218:A235"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="E220:E221"/>
+    <mergeCell ref="E222:E223"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="E226:E227"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="E230:E231"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="E234:E235"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A38:A55"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A56:A73"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A92:A109"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="A110:A127"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="A164:A181"/>
+    <mergeCell ref="E168:E169"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E8:E9"/>
@@ -9811,53 +10168,55 @@
     <mergeCell ref="E146:E147"/>
     <mergeCell ref="E148:E149"/>
     <mergeCell ref="A146:A163"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="A164:A181"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A92:A109"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="A110:A127"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A38:A55"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A56:A73"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A20:A37"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A91"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A128:A145"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="A182:A199"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="E198:E199"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
